--- a/TransferenciasRecibidas.xlsx
+++ b/TransferenciasRecibidas.xlsx
@@ -204,7 +204,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2132685179" name="Picture">
+        <xdr:cNvPr id="1251176046" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
@@ -1103,7 +1103,7 @@
       <c r="A14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000029042671</t>
+            <t xml:space="preserve">000019018781</t>
           </r>
         </is>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="C14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="F14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -1146,35 +1146,35 @@
       <c r="H14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8500586-3</t>
+            <t xml:space="preserve">17533592-7</t>
           </r>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Andres Roberto Munoz Castillo</t>
+            <t xml:space="preserve">CARLOS ALBERTO VALENZUELA BARR</t>
           </r>
         </is>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Mercado Pago Emisora S.A.</t>
+            <t xml:space="preserve">TENPO Prepago S.A.</t>
           </r>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1096599764</t>
+            <t xml:space="preserve">111117533592</t>
           </r>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">510.325</t>
+            <t xml:space="preserve">69.584</t>
           </r>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="A15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000029437355</t>
+            <t xml:space="preserve">000029042671</t>
           </r>
         </is>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="C15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="F15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -1231,14 +1231,14 @@
       <c r="H15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15516152-3</t>
+            <t xml:space="preserve">8500586-3</t>
           </r>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Roxana Andrea Aguila Barria</t>
+            <t xml:space="preserve">Andres Roberto Munoz Castillo</t>
           </r>
         </is>
       </c>
@@ -1252,14 +1252,14 @@
       <c r="K15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1025647508</t>
+            <t xml:space="preserve">1096599764</t>
           </r>
         </is>
       </c>
       <c r="L15" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34.174</t>
+            <t xml:space="preserve">510.325</t>
           </r>
         </is>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="A16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000055830904</t>
+            <t xml:space="preserve">000029437355</t>
           </r>
         </is>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="C16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="F16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -1316,35 +1316,35 @@
       <c r="H16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15953873-7</t>
+            <t xml:space="preserve">15516152-3</t>
           </r>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">QUEZADA, DEISY</t>
+            <t xml:space="preserve">Roxana Andrea Aguila Barria</t>
           </r>
         </is>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Copeuch</t>
+            <t xml:space="preserve">Mercado Pago Emisora S.A.</t>
           </r>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">184892033</t>
+            <t xml:space="preserve">1025647508</t>
           </r>
         </is>
       </c>
       <c r="L16" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">400.000</t>
+            <t xml:space="preserve">34.174</t>
           </r>
         </is>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="A17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000187615631</t>
+            <t xml:space="preserve">000055830904</t>
           </r>
         </is>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="C17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="F17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -1401,35 +1401,35 @@
       <c r="H17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11815935-7</t>
+            <t xml:space="preserve">15953873-7</t>
           </r>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">YENNISA CASTRO GODOY</t>
+            <t xml:space="preserve">QUEZADA, DEISY</t>
           </r>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Ripley</t>
+            <t xml:space="preserve">Copeuch</t>
           </r>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4041525431</t>
+            <t xml:space="preserve">184892033</t>
           </r>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">65.514</t>
+            <t xml:space="preserve">400.000</t>
           </r>
         </is>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="A18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">000188378445</t>
+            <t xml:space="preserve">000056101913</t>
           </r>
         </is>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="C18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -1486,35 +1486,35 @@
       <c r="H18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13949262-5</t>
+            <t xml:space="preserve">15811578-6</t>
           </r>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JESSICA FUENTES MORENO</t>
+            <t xml:space="preserve">SALAZAR, GABRIELA</t>
           </r>
         </is>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Ripley</t>
+            <t xml:space="preserve">Copeuch</t>
           </r>
         </is>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4041805807</t>
+            <t xml:space="preserve">200083760</t>
           </r>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">77.264</t>
+            <t xml:space="preserve">75.204</t>
           </r>
         </is>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="A19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001331208483</t>
+            <t xml:space="preserve">000187615631</t>
           </r>
         </is>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="C19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="F19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -1571,35 +1571,35 @@
       <c r="H19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19227104-5</t>
+            <t xml:space="preserve">11815935-7</t>
           </r>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LUIS FELIPE ORTIZ OCARES</t>
+            <t xml:space="preserve">YENNISA CASTRO GODOY</t>
           </r>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Santander-Chile</t>
+            <t xml:space="preserve">Banco Ripley</t>
           </r>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">86657414</t>
+            <t xml:space="preserve">4041525431</t>
           </r>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">142.723</t>
+            <t xml:space="preserve">65.514</t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="A20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001331735508</t>
+            <t xml:space="preserve">000188378445</t>
           </r>
         </is>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="C20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="F20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -1656,35 +1656,35 @@
       <c r="H20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18161157-K</t>
+            <t xml:space="preserve">13949262-5</t>
           </r>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OSCAR DANIEL VARGAS MANSILLA</t>
+            <t xml:space="preserve">JESSICA FUENTES MORENO</t>
           </r>
         </is>
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Santander-Chile</t>
+            <t xml:space="preserve">Banco Ripley</t>
           </r>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">66792811</t>
+            <t xml:space="preserve">4041805807</t>
           </r>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">150.000</t>
+            <t xml:space="preserve">77.264</t>
           </r>
         </is>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="A21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001332342631</t>
+            <t xml:space="preserve">001331208483</t>
           </r>
         </is>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="C21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="F21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -1741,14 +1741,14 @@
       <c r="H21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10107606-7</t>
+            <t xml:space="preserve">19227104-5</t>
           </r>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OMAR ORELLANA CACERES</t>
+            <t xml:space="preserve">LUIS FELIPE ORTIZ OCARES</t>
           </r>
         </is>
       </c>
@@ -1762,14 +1762,14 @@
       <c r="K21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3784290</t>
+            <t xml:space="preserve">86657414</t>
           </r>
         </is>
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">250.000</t>
+            <t xml:space="preserve">142.723</t>
           </r>
         </is>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="A22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001332444624</t>
+            <t xml:space="preserve">001331735508</t>
           </r>
         </is>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="C22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="F22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -1826,14 +1826,14 @@
       <c r="H22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7383445-7</t>
+            <t xml:space="preserve">18161157-K</t>
           </r>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARGARITA CECILIA NAVARRETE AG</t>
+            <t xml:space="preserve">OSCAR DANIEL VARGAS MANSILLA</t>
           </r>
         </is>
       </c>
@@ -1847,14 +1847,14 @@
       <c r="K22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">69265766</t>
+            <t xml:space="preserve">66792811</t>
           </r>
         </is>
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">357.989</t>
+            <t xml:space="preserve">150.000</t>
           </r>
         </is>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="A23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001332914561</t>
+            <t xml:space="preserve">001332342631</t>
           </r>
         </is>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="C23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="F23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -1911,14 +1911,14 @@
       <c r="H23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25819298-2</t>
+            <t xml:space="preserve">10107606-7</t>
           </r>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ELBA LUCRECIA TELLEZ SILVA</t>
+            <t xml:space="preserve">OMAR ORELLANA CACERES</t>
           </r>
         </is>
       </c>
@@ -1932,14 +1932,14 @@
       <c r="K23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">75323409</t>
+            <t xml:space="preserve">3784290</t>
           </r>
         </is>
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44.732</t>
+            <t xml:space="preserve">250.000</t>
           </r>
         </is>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="A24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001333014314</t>
+            <t xml:space="preserve">001332444624</t>
           </r>
         </is>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="C24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="F24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -1996,14 +1996,14 @@
       <c r="H24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76705062-3</t>
+            <t xml:space="preserve">7383445-7</t>
           </r>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">FORESTAL LOS ALERCES LIMITADA</t>
+            <t xml:space="preserve">MARGARITA CECILIA NAVARRETE AG</t>
           </r>
         </is>
       </c>
@@ -2017,14 +2017,14 @@
       <c r="K24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">86603780</t>
+            <t xml:space="preserve">69265766</t>
           </r>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">570.304</t>
+            <t xml:space="preserve">357.989</t>
           </r>
         </is>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="A25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001334021660</t>
+            <t xml:space="preserve">001332914561</t>
           </r>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="F25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -2081,14 +2081,14 @@
       <c r="H25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17249127-8</t>
+            <t xml:space="preserve">25819298-2</t>
           </r>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CLAUDIO ANDRES POBLETE CORDERO</t>
+            <t xml:space="preserve">ELBA LUCRECIA TELLEZ SILVA</t>
           </r>
         </is>
       </c>
@@ -2102,14 +2102,14 @@
       <c r="K25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76993882</t>
+            <t xml:space="preserve">75323409</t>
           </r>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">124.967</t>
+            <t xml:space="preserve">44.732</t>
           </r>
         </is>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="A26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001334074375</t>
+            <t xml:space="preserve">001333014314</t>
           </r>
         </is>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="C26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -2166,14 +2166,14 @@
       <c r="H26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11671345-4</t>
+            <t xml:space="preserve">76705062-3</t>
           </r>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CARLOS YASHIN FIERRO REYES</t>
+            <t xml:space="preserve">FORESTAL LOS ALERCES LIMITADA</t>
           </r>
         </is>
       </c>
@@ -2187,14 +2187,14 @@
       <c r="K26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1713278153</t>
+            <t xml:space="preserve">86603780</t>
           </r>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">281.884</t>
+            <t xml:space="preserve">570.304</t>
           </r>
         </is>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="A27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001334516278</t>
+            <t xml:space="preserve">001334021660</t>
           </r>
         </is>
       </c>
@@ -2251,14 +2251,14 @@
       <c r="H27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15892890-6</t>
+            <t xml:space="preserve">17249127-8</t>
           </r>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DAVID CHAVEZ MARDONES</t>
+            <t xml:space="preserve">CLAUDIO ANDRES POBLETE CORDERO</t>
           </r>
         </is>
       </c>
@@ -2272,14 +2272,14 @@
       <c r="K27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">67532953</t>
+            <t xml:space="preserve">76993882</t>
           </r>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">191.377</t>
+            <t xml:space="preserve">124.967</t>
           </r>
         </is>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="A28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335115445</t>
+            <t xml:space="preserve">001334074375</t>
           </r>
         </is>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="C28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="F28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -2336,14 +2336,14 @@
       <c r="H28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17199914-6</t>
+            <t xml:space="preserve">11671345-4</t>
           </r>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EVELIN NATALI CASTRO ARRIAGADA</t>
+            <t xml:space="preserve">CARLOS YASHIN FIERRO REYES</t>
           </r>
         </is>
       </c>
@@ -2357,14 +2357,14 @@
       <c r="K28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5617199914</t>
+            <t xml:space="preserve">1713278153</t>
           </r>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">67.000</t>
+            <t xml:space="preserve">281.884</t>
           </r>
         </is>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="A29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335192756</t>
+            <t xml:space="preserve">001334516278</t>
           </r>
         </is>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="C29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -2421,14 +2421,14 @@
       <c r="H29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17112864-1</t>
+            <t xml:space="preserve">15892890-6</t>
           </r>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DONALD EDGARD CASTRO ALVAREZ</t>
+            <t xml:space="preserve">DAVID CHAVEZ MARDONES</t>
           </r>
         </is>
       </c>
@@ -2442,14 +2442,14 @@
       <c r="K29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">81597120</t>
+            <t xml:space="preserve">67532953</t>
           </r>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">223.152</t>
+            <t xml:space="preserve">191.377</t>
           </r>
         </is>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="A30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335623964</t>
+            <t xml:space="preserve">001335115445</t>
           </r>
         </is>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="F30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -2506,14 +2506,14 @@
       <c r="H30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15753303-7</t>
+            <t xml:space="preserve">17199914-6</t>
           </r>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SEBASTIAN LUIS ZAMORA MUNOZ</t>
+            <t xml:space="preserve">EVELIN NATALI CASTRO ARRIAGADA</t>
           </r>
         </is>
       </c>
@@ -2527,14 +2527,14 @@
       <c r="K30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">78448199</t>
+            <t xml:space="preserve">5617199914</t>
           </r>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">225.704</t>
+            <t xml:space="preserve">67.000</t>
           </r>
         </is>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="A31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335845379</t>
+            <t xml:space="preserve">001335192756</t>
           </r>
         </is>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="C31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="F31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -2591,14 +2591,14 @@
       <c r="H31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18698504-4</t>
+            <t xml:space="preserve">17112864-1</t>
           </r>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JOSE LUIS DURAN DELGADO</t>
+            <t xml:space="preserve">DONALD EDGARD CASTRO ALVAREZ</t>
           </r>
         </is>
       </c>
@@ -2612,14 +2612,14 @@
       <c r="K31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">70933250</t>
+            <t xml:space="preserve">81597120</t>
           </r>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50.000</t>
+            <t xml:space="preserve">223.152</t>
           </r>
         </is>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="A32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335869996</t>
+            <t xml:space="preserve">001335623964</t>
           </r>
         </is>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="C32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="F32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -2676,14 +2676,14 @@
       <c r="H32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15288091-K</t>
+            <t xml:space="preserve">15753303-7</t>
           </r>
         </is>
       </c>
       <c r="I32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DANIELA PAZ MIRANDA CRUZ</t>
+            <t xml:space="preserve">SEBASTIAN LUIS ZAMORA MUNOZ</t>
           </r>
         </is>
       </c>
@@ -2697,14 +2697,14 @@
       <c r="K32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">71184935</t>
+            <t xml:space="preserve">78448199</t>
           </r>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">283.562</t>
+            <t xml:space="preserve">225.704</t>
           </r>
         </is>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="A33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335912355</t>
+            <t xml:space="preserve">001335845379</t>
           </r>
         </is>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="F33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -2761,14 +2761,14 @@
       <c r="H33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14439725-8</t>
+            <t xml:space="preserve">18698504-4</t>
           </r>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CAROLA MARISEL SANTOS AGUILAR</t>
+            <t xml:space="preserve">JOSE LUIS DURAN DELGADO</t>
           </r>
         </is>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="K33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">78085444</t>
+            <t xml:space="preserve">70933250</t>
           </r>
         </is>
       </c>
       <c r="L33" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">75.422</t>
+            <t xml:space="preserve">50.000</t>
           </r>
         </is>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="A34" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">001335930273</t>
+            <t xml:space="preserve">001335869996</t>
           </r>
         </is>
       </c>
@@ -2846,14 +2846,14 @@
       <c r="H34" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17704152-1</t>
+            <t xml:space="preserve">15288091-K</t>
           </r>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA IGNACIA DE JESUS RETAMAL</t>
+            <t xml:space="preserve">DANIELA PAZ MIRANDA CRUZ</t>
           </r>
         </is>
       </c>
@@ -2867,14 +2867,14 @@
       <c r="K34" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">73012651</t>
+            <t xml:space="preserve">71184935</t>
           </r>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">80.747</t>
+            <t xml:space="preserve">283.562</t>
           </r>
         </is>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="A35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">011024007116</t>
+            <t xml:space="preserve">001335912355</t>
           </r>
         </is>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="C35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -2931,35 +2931,35 @@
       <c r="H35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17648914-6</t>
+            <t xml:space="preserve">14439725-8</t>
           </r>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CASTILLO QUEZADA BRIGITTE ARAC</t>
+            <t xml:space="preserve">CAROLA MARISEL SANTOS AGUILAR</t>
           </r>
         </is>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Del Estado de Chile</t>
+            <t xml:space="preserve">Banco Santander-Chile</t>
           </r>
         </is>
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">72970188950</t>
+            <t xml:space="preserve">78085444</t>
           </r>
         </is>
       </c>
       <c r="L35" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">66.644</t>
+            <t xml:space="preserve">75.422</t>
           </r>
         </is>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="A36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">011035078654</t>
+            <t xml:space="preserve">001335930273</t>
           </r>
         </is>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="C36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -3016,35 +3016,35 @@
       <c r="H36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19540746-0</t>
+            <t xml:space="preserve">17704152-1</t>
           </r>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RUIZ CHAVEZ JAVIERA YOLANDA</t>
+            <t xml:space="preserve">MARIA IGNACIA DE JESUS RETAMAL</t>
           </r>
         </is>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Del Estado de Chile</t>
+            <t xml:space="preserve">Banco Santander-Chile</t>
           </r>
         </is>
       </c>
       <c r="K36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">82970286043</t>
+            <t xml:space="preserve">73012651</t>
           </r>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">98.800</t>
+            <t xml:space="preserve">80.747</t>
           </r>
         </is>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="A37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">011125086928</t>
+            <t xml:space="preserve">011024007116</t>
           </r>
         </is>
       </c>
@@ -3101,14 +3101,14 @@
       <c r="H37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14493860-7</t>
+            <t xml:space="preserve">17648914-6</t>
           </r>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MONTOYA FLORES ALFONSO ALEX</t>
+            <t xml:space="preserve">CASTILLO QUEZADA BRIGITTE ARAC</t>
           </r>
         </is>
       </c>
@@ -3122,14 +3122,14 @@
       <c r="K37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">604925</t>
+            <t xml:space="preserve">72970188950</t>
           </r>
         </is>
       </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">221.000</t>
+            <t xml:space="preserve">66.644</t>
           </r>
         </is>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="A38" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">011409050097</t>
+            <t xml:space="preserve">011035078654</t>
           </r>
         </is>
       </c>
@@ -3186,14 +3186,14 @@
       <c r="H38" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18326857-0</t>
+            <t xml:space="preserve">19540746-0</t>
           </r>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROJAS VALDERRAMA JOSE IGNACIO</t>
+            <t xml:space="preserve">RUIZ CHAVEZ JAVIERA YOLANDA</t>
           </r>
         </is>
       </c>
@@ -3207,14 +3207,14 @@
       <c r="K38" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30470635301</t>
+            <t xml:space="preserve">82970286043</t>
           </r>
         </is>
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">52.558</t>
+            <t xml:space="preserve">98.800</t>
           </r>
         </is>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="A39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">011708076800</t>
+            <t xml:space="preserve">011125086928</t>
           </r>
         </is>
       </c>
@@ -3271,14 +3271,14 @@
       <c r="H39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12674024-7</t>
+            <t xml:space="preserve">14493860-7</t>
           </r>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">YANEZ GUTIERREZ MARIA VERONICA</t>
+            <t xml:space="preserve">MONTOYA FLORES ALFONSO ALEX</t>
           </r>
         </is>
       </c>
@@ -3292,14 +3292,14 @@
       <c r="K39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36070635709</t>
+            <t xml:space="preserve">604925</t>
           </r>
         </is>
       </c>
       <c r="L39" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">52.960</t>
+            <t xml:space="preserve">221.000</t>
           </r>
         </is>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="A40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">012306092473</t>
+            <t xml:space="preserve">011409050097</t>
           </r>
         </is>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="F40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -3356,14 +3356,14 @@
       <c r="H40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13984210-3</t>
+            <t xml:space="preserve">18326857-0</t>
           </r>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DURAN CORDOVA SUSANA EDITH</t>
+            <t xml:space="preserve">ROJAS VALDERRAMA JOSE IGNACIO</t>
           </r>
         </is>
       </c>
@@ -3377,14 +3377,14 @@
       <c r="K40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23170143604</t>
+            <t xml:space="preserve">30470635301</t>
           </r>
         </is>
       </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25.000</t>
+            <t xml:space="preserve">52.558</t>
           </r>
         </is>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="A41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">012540189797</t>
+            <t xml:space="preserve">011708076800</t>
           </r>
         </is>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="C41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="F41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -3441,35 +3441,35 @@
       <c r="H41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16643825-K</t>
+            <t xml:space="preserve">12674024-7</t>
           </r>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO ANDRES SAN MARTIN VELA</t>
+            <t xml:space="preserve">YANEZ GUTIERREZ MARIA VERONICA</t>
           </r>
         </is>
       </c>
       <c r="J41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10060508057</t>
+            <t xml:space="preserve">36070635709</t>
           </r>
         </is>
       </c>
       <c r="L41" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">265.744</t>
+            <t xml:space="preserve">52.960</t>
           </r>
         </is>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="A42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">021419068087</t>
+            <t xml:space="preserve">012306092473</t>
           </r>
         </is>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="C42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="F42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -3526,14 +3526,14 @@
       <c r="H42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19909205-7</t>
+            <t xml:space="preserve">13984210-3</t>
           </r>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LOPEZ DIAZ CATALINA FRANCISCA</t>
+            <t xml:space="preserve">DURAN CORDOVA SUSANA EDITH</t>
           </r>
         </is>
       </c>
@@ -3547,14 +3547,14 @@
       <c r="K42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53371759464</t>
+            <t xml:space="preserve">23170143604</t>
           </r>
         </is>
       </c>
       <c r="L42" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76.200</t>
+            <t xml:space="preserve">25.000</t>
           </r>
         </is>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="A43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">021603007451</t>
+            <t xml:space="preserve">012540189797</t>
           </r>
         </is>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="C43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="F43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -3611,35 +3611,35 @@
       <c r="H43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16753098-2</t>
+            <t xml:space="preserve">16643825-K</t>
           </r>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MUNOZ PONCE YENNIFER CHARLOTTE</t>
+            <t xml:space="preserve">EDUARDO ANDRES SAN MARTIN VELA</t>
           </r>
         </is>
       </c>
       <c r="J43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Del Estado de Chile</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25170595591</t>
+            <t xml:space="preserve">10060508057</t>
           </r>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">66.667</t>
+            <t xml:space="preserve">265.744</t>
           </r>
         </is>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="A44" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">021612054692</t>
+            <t xml:space="preserve">021419068087</t>
           </r>
         </is>
       </c>
@@ -3696,14 +3696,14 @@
       <c r="H44" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12759099-0</t>
+            <t xml:space="preserve">19909205-7</t>
           </r>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOTO GUTIERREZ MARLENE ALEJAND</t>
+            <t xml:space="preserve">LOPEZ DIAZ CATALINA FRANCISCA</t>
           </r>
         </is>
       </c>
@@ -3717,14 +3717,14 @@
       <c r="K44" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">82973003344</t>
+            <t xml:space="preserve">53371759464</t>
           </r>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">84.000</t>
+            <t xml:space="preserve">76.200</t>
           </r>
         </is>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="A45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">022854848087</t>
+            <t xml:space="preserve">021603007451</t>
           </r>
         </is>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="C45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="F45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -3781,35 +3781,35 @@
       <c r="H45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18276263-6</t>
+            <t xml:space="preserve">16753098-2</t>
           </r>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">VALERIA PAZ CORREA LETELIER</t>
+            <t xml:space="preserve">MUNOZ PONCE YENNIFER CHARLOTTE</t>
           </r>
         </is>
       </c>
       <c r="J45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50012661058</t>
+            <t xml:space="preserve">25170595591</t>
           </r>
         </is>
       </c>
       <c r="L45" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">219.653</t>
+            <t xml:space="preserve">66.667</t>
           </r>
         </is>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="A46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">031036042127</t>
+            <t xml:space="preserve">021612054692</t>
           </r>
         </is>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="C46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -3866,14 +3866,14 @@
       <c r="H46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15717979-9</t>
+            <t xml:space="preserve">12759099-0</t>
           </r>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GOMEZ OLMEDO EVELYN DE LOS ANG</t>
+            <t xml:space="preserve">SOTO GUTIERREZ MARLENE ALEJAND</t>
           </r>
         </is>
       </c>
@@ -3887,14 +3887,14 @@
       <c r="K46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23973013556</t>
+            <t xml:space="preserve">82973003344</t>
           </r>
         </is>
       </c>
       <c r="L46" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">127.000</t>
+            <t xml:space="preserve">84.000</t>
           </r>
         </is>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="A47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">035017035082</t>
+            <t xml:space="preserve">022854848087</t>
           </r>
         </is>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="C47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="F47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -3951,35 +3951,35 @@
       <c r="H47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16828830-1</t>
+            <t xml:space="preserve">18276263-6</t>
           </r>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ALVAREZ RUBIO MARCELO ANDRES</t>
+            <t xml:space="preserve">VALERIA PAZ CORREA LETELIER</t>
           </r>
         </is>
       </c>
       <c r="J47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Del Estado de Chile</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16828830</t>
+            <t xml:space="preserve">50012661058</t>
           </r>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30.752</t>
+            <t xml:space="preserve">219.653</t>
           </r>
         </is>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="A48" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">036216051455</t>
+            <t xml:space="preserve">031036042127</t>
           </r>
         </is>
       </c>
@@ -4036,14 +4036,14 @@
       <c r="H48" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13206819-4</t>
+            <t xml:space="preserve">15717979-9</t>
           </r>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GUERRERO CUEVAS KATHERINE ESTE</t>
+            <t xml:space="preserve">GOMEZ OLMEDO EVELYN DE LOS ANG</t>
           </r>
         </is>
       </c>
@@ -4057,14 +4057,14 @@
       <c r="K48" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13206819</t>
+            <t xml:space="preserve">23973013556</t>
           </r>
         </is>
       </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.000</t>
+            <t xml:space="preserve">127.000</t>
           </r>
         </is>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="A49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">036343032313</t>
+            <t xml:space="preserve">035017035082</t>
           </r>
         </is>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="F49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -4121,14 +4121,14 @@
       <c r="H49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13763353-1</t>
+            <t xml:space="preserve">16828830-1</t>
           </r>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LARA VALENCIA JUAN HERNAN</t>
+            <t xml:space="preserve">ALVAREZ RUBIO MARCELO ANDRES</t>
           </r>
         </is>
       </c>
@@ -4142,14 +4142,14 @@
       <c r="K49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13763353</t>
+            <t xml:space="preserve">16828830</t>
           </r>
         </is>
       </c>
       <c r="L49" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">159.543</t>
+            <t xml:space="preserve">30.752</t>
           </r>
         </is>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="A50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">041534062364</t>
+            <t xml:space="preserve">036216051455</t>
           </r>
         </is>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="C50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">04/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="F50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -4206,14 +4206,14 @@
       <c r="H50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11317290-8</t>
+            <t xml:space="preserve">13206819-4</t>
           </r>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CLAVERO VASQUEZ CECILIA DE LA</t>
+            <t xml:space="preserve">GUERRERO CUEVAS KATHERINE ESTE</t>
           </r>
         </is>
       </c>
@@ -4227,14 +4227,14 @@
       <c r="K50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">32971568088</t>
+            <t xml:space="preserve">13206819</t>
           </r>
         </is>
       </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29.000</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="A51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051043083419</t>
+            <t xml:space="preserve">036343032313</t>
           </r>
         </is>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="C51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="F51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -4291,14 +4291,14 @@
       <c r="H51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11994791-K</t>
+            <t xml:space="preserve">13763353-1</t>
           </r>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CONTRERAS DONOSO PEDRO ANTONIO</t>
+            <t xml:space="preserve">LARA VALENCIA JUAN HERNAN</t>
           </r>
         </is>
       </c>
@@ -4312,14 +4312,14 @@
       <c r="K51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38770027389</t>
+            <t xml:space="preserve">13763353</t>
           </r>
         </is>
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19.258</t>
+            <t xml:space="preserve">159.543</t>
           </r>
         </is>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="A52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051137064789</t>
+            <t xml:space="preserve">041534062364</t>
           </r>
         </is>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="C52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">04/08/2024</t>
           </r>
         </is>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="F52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -4376,14 +4376,14 @@
       <c r="H52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12640530-8</t>
+            <t xml:space="preserve">11317290-8</t>
           </r>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SILVA ESPINOSA MARCELA ANDREA</t>
+            <t xml:space="preserve">CLAVERO VASQUEZ CECILIA DE LA</t>
           </r>
         </is>
       </c>
@@ -4397,14 +4397,14 @@
       <c r="K52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34670161198</t>
+            <t xml:space="preserve">32971568088</t>
           </r>
         </is>
       </c>
       <c r="L52" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61.950</t>
+            <t xml:space="preserve">29.000</t>
           </r>
         </is>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="A53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051249073938</t>
+            <t xml:space="preserve">051043083419</t>
           </r>
         </is>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="F53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -4461,14 +4461,14 @@
       <c r="H53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8551893-3</t>
+            <t xml:space="preserve">11994791-K</t>
           </r>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ELGUETA NEIRA PAOLA ANDREA</t>
+            <t xml:space="preserve">CONTRERAS DONOSO PEDRO ANTONIO</t>
           </r>
         </is>
       </c>
@@ -4482,14 +4482,14 @@
       <c r="K53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29170311581</t>
+            <t xml:space="preserve">38770027389</t>
           </r>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">135.174</t>
+            <t xml:space="preserve">19.258</t>
           </r>
         </is>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="A54" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051308084752</t>
+            <t xml:space="preserve">051137064789</t>
           </r>
         </is>
       </c>
@@ -4546,14 +4546,14 @@
       <c r="H54" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18459177-4</t>
+            <t xml:space="preserve">12640530-8</t>
           </r>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CANDIA CARRASCO FELIPE IGNACIO</t>
+            <t xml:space="preserve">SILVA ESPINOSA MARCELA ANDREA</t>
           </r>
         </is>
       </c>
@@ -4567,14 +4567,14 @@
       <c r="K54" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33970501989</t>
+            <t xml:space="preserve">34670161198</t>
           </r>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">73.000</t>
+            <t xml:space="preserve">61.950</t>
           </r>
         </is>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="A55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051316035371</t>
+            <t xml:space="preserve">051249073938</t>
           </r>
         </is>
       </c>
@@ -4631,14 +4631,14 @@
       <c r="H55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8567124-3</t>
+            <t xml:space="preserve">8551893-3</t>
           </r>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROZAS ACEVAL MARCELA DEL PILAR</t>
+            <t xml:space="preserve">ELGUETA NEIRA PAOLA ANDREA</t>
           </r>
         </is>
       </c>
@@ -4652,14 +4652,14 @@
       <c r="K55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37770395543</t>
+            <t xml:space="preserve">29170311581</t>
           </r>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">157.517</t>
+            <t xml:space="preserve">135.174</t>
           </r>
         </is>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="A56" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051431083778</t>
+            <t xml:space="preserve">051308084752</t>
           </r>
         </is>
       </c>
@@ -4716,14 +4716,14 @@
       <c r="H56" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12423060-8</t>
+            <t xml:space="preserve">18459177-4</t>
           </r>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOTO HINOSTROZA ALEX ENRIQUE</t>
+            <t xml:space="preserve">CANDIA CARRASCO FELIPE IGNACIO</t>
           </r>
         </is>
       </c>
@@ -4737,14 +4737,14 @@
       <c r="K56" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">81571397277</t>
+            <t xml:space="preserve">33970501989</t>
           </r>
         </is>
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">133.000</t>
+            <t xml:space="preserve">73.000</t>
           </r>
         </is>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="A57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051456025139</t>
+            <t xml:space="preserve">051316035371</t>
           </r>
         </is>
       </c>
@@ -4787,7 +4787,7 @@
       <c r="F57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -4801,14 +4801,14 @@
       <c r="H57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21442542-4</t>
+            <t xml:space="preserve">8567124-3</t>
           </r>
         </is>
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MERCADO BARRETO STEPHANY MARIA</t>
+            <t xml:space="preserve">ROZAS ACEVAL MARCELA DEL PILAR</t>
           </r>
         </is>
       </c>
@@ -4822,14 +4822,14 @@
       <c r="K57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35670938261</t>
+            <t xml:space="preserve">37770395543</t>
           </r>
         </is>
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">56.000</t>
+            <t xml:space="preserve">157.517</t>
           </r>
         </is>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="A58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051459039404</t>
+            <t xml:space="preserve">051431083778</t>
           </r>
         </is>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="F58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -4886,14 +4886,14 @@
       <c r="H58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12914081-K</t>
+            <t xml:space="preserve">12423060-8</t>
           </r>
         </is>
       </c>
       <c r="I58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LAGOS CATALDO SUSANA PATRICIA</t>
+            <t xml:space="preserve">SOTO HINOSTROZA ALEX ENRIQUE</t>
           </r>
         </is>
       </c>
@@ -4907,14 +4907,14 @@
       <c r="K58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39000024434</t>
+            <t xml:space="preserve">81571397277</t>
           </r>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">250.000</t>
+            <t xml:space="preserve">133.000</t>
           </r>
         </is>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="A59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051500047863</t>
+            <t xml:space="preserve">051456025139</t>
           </r>
         </is>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="F59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -4971,14 +4971,14 @@
       <c r="H59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9987624-7</t>
+            <t xml:space="preserve">21442542-4</t>
           </r>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MUNOZ VALDEBENITO YOLANDA MARI</t>
+            <t xml:space="preserve">MERCADO BARRETO STEPHANY MARIA</t>
           </r>
         </is>
       </c>
@@ -4992,14 +4992,14 @@
       <c r="K59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33470246711</t>
+            <t xml:space="preserve">35670938261</t>
           </r>
         </is>
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">139.386</t>
+            <t xml:space="preserve">56.000</t>
           </r>
         </is>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="A60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051549019373</t>
+            <t xml:space="preserve">051459039404</t>
           </r>
         </is>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="F60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -5056,14 +5056,14 @@
       <c r="H60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9652362-9</t>
+            <t xml:space="preserve">12914081-K</t>
           </r>
         </is>
       </c>
       <c r="I60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PONCE RAMIREZ GLADYS MARIANELA</t>
+            <t xml:space="preserve">LAGOS CATALDO SUSANA PATRICIA</t>
           </r>
         </is>
       </c>
@@ -5077,14 +5077,14 @@
       <c r="K60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23770113083</t>
+            <t xml:space="preserve">39000024434</t>
           </r>
         </is>
       </c>
       <c r="L60" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20.000</t>
+            <t xml:space="preserve">250.000</t>
           </r>
         </is>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="A61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">051953000145</t>
+            <t xml:space="preserve">051500047863</t>
           </r>
         </is>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="F61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -5141,14 +5141,14 @@
       <c r="H61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13368165-5</t>
+            <t xml:space="preserve">9987624-7</t>
           </r>
         </is>
       </c>
       <c r="I61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PIZARRO HURTADO CLAUDIO ANDRES</t>
+            <t xml:space="preserve">MUNOZ VALDEBENITO YOLANDA MARI</t>
           </r>
         </is>
       </c>
@@ -5162,14 +5162,14 @@
       <c r="K61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36570287421</t>
+            <t xml:space="preserve">33470246711</t>
           </r>
         </is>
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">78.288</t>
+            <t xml:space="preserve">139.386</t>
           </r>
         </is>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="A62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">052111048735</t>
+            <t xml:space="preserve">051549019373</t>
           </r>
         </is>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="F62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -5226,14 +5226,14 @@
       <c r="H62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9253608-4</t>
+            <t xml:space="preserve">9652362-9</t>
           </r>
         </is>
       </c>
       <c r="I62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GONZALEZ DAZA JORGE LUIS</t>
+            <t xml:space="preserve">PONCE RAMIREZ GLADYS MARIANELA</t>
           </r>
         </is>
       </c>
@@ -5247,14 +5247,14 @@
       <c r="K62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29470420128</t>
+            <t xml:space="preserve">23770113083</t>
           </r>
         </is>
       </c>
       <c r="L62" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">208.791</t>
+            <t xml:space="preserve">20.000</t>
           </r>
         </is>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="A63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">052203018728</t>
+            <t xml:space="preserve">051953000145</t>
           </r>
         </is>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="F63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -5311,14 +5311,14 @@
       <c r="H63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16616595-4</t>
+            <t xml:space="preserve">13368165-5</t>
           </r>
         </is>
       </c>
       <c r="I63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BADILLA GARRIDO NICOLAS ALBERT</t>
+            <t xml:space="preserve">PIZARRO HURTADO CLAUDIO ANDRES</t>
           </r>
         </is>
       </c>
@@ -5332,14 +5332,14 @@
       <c r="K63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28200190515</t>
+            <t xml:space="preserve">36570287421</t>
           </r>
         </is>
       </c>
       <c r="L63" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">251.094</t>
+            <t xml:space="preserve">78.288</t>
           </r>
         </is>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="A64" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">056155005362</t>
+            <t xml:space="preserve">052111048735</t>
           </r>
         </is>
       </c>
@@ -5396,14 +5396,14 @@
       <c r="H64" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15360186-0</t>
+            <t xml:space="preserve">9253608-4</t>
           </r>
         </is>
       </c>
       <c r="I64" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOTO SALDIAS JAIME ANTONIO</t>
+            <t xml:space="preserve">GONZALEZ DAZA JORGE LUIS</t>
           </r>
         </is>
       </c>
@@ -5417,14 +5417,14 @@
       <c r="K64" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15360186</t>
+            <t xml:space="preserve">29470420128</t>
           </r>
         </is>
       </c>
       <c r="L64" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">190.980</t>
+            <t xml:space="preserve">208.791</t>
           </r>
         </is>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="A65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">056927024760</t>
+            <t xml:space="preserve">052203018728</t>
           </r>
         </is>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="F65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -5481,14 +5481,14 @@
       <c r="H65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13556365-K</t>
+            <t xml:space="preserve">16616595-4</t>
           </r>
         </is>
       </c>
       <c r="I65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MUNOZ ARMIJO MARIO ALEJANDRO</t>
+            <t xml:space="preserve">BADILLA GARRIDO NICOLAS ALBERT</t>
           </r>
         </is>
       </c>
@@ -5502,14 +5502,14 @@
       <c r="K65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13556365</t>
+            <t xml:space="preserve">28200190515</t>
           </r>
         </is>
       </c>
       <c r="L65" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34.100</t>
+            <t xml:space="preserve">251.094</t>
           </r>
         </is>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="A66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">060942085365</t>
+            <t xml:space="preserve">056155005362</t>
           </r>
         </is>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="C66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -5566,14 +5566,14 @@
       <c r="H66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18888912-3</t>
+            <t xml:space="preserve">15360186-0</t>
           </r>
         </is>
       </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MUNOZ VARGAS NICOLAS EFRAIN</t>
+            <t xml:space="preserve">SOTO SALDIAS JAIME ANTONIO</t>
           </r>
         </is>
       </c>
@@ -5587,14 +5587,14 @@
       <c r="K66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">71570087848</t>
+            <t xml:space="preserve">15360186</t>
           </r>
         </is>
       </c>
       <c r="L66" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">433.404</t>
+            <t xml:space="preserve">190.980</t>
           </r>
         </is>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="A67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061008003537</t>
+            <t xml:space="preserve">056927024760</t>
           </r>
         </is>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="C67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="F67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -5651,14 +5651,14 @@
       <c r="H67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25902248-7</t>
+            <t xml:space="preserve">13556365-K</t>
           </r>
         </is>
       </c>
       <c r="I67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CARRILLO ALVIAREZ JEORGIA AURO</t>
+            <t xml:space="preserve">MUNOZ ARMIJO MARIO ALEJANDRO</t>
           </r>
         </is>
       </c>
@@ -5672,14 +5672,14 @@
       <c r="K67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5470106753</t>
+            <t xml:space="preserve">13556365</t>
           </r>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">236.843</t>
+            <t xml:space="preserve">34.100</t>
           </r>
         </is>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="A68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061018049987</t>
+            <t xml:space="preserve">060942085365</t>
           </r>
         </is>
       </c>
@@ -5736,14 +5736,14 @@
       <c r="H68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12371263-3</t>
+            <t xml:space="preserve">18888912-3</t>
           </r>
         </is>
       </c>
       <c r="I68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">REYES VILLALOBOS MARIA ALEJAND</t>
+            <t xml:space="preserve">MUNOZ VARGAS NICOLAS EFRAIN</t>
           </r>
         </is>
       </c>
@@ -5757,14 +5757,14 @@
       <c r="K68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42970054094</t>
+            <t xml:space="preserve">71570087848</t>
           </r>
         </is>
       </c>
       <c r="L68" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">324.357</t>
+            <t xml:space="preserve">433.404</t>
           </r>
         </is>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="A69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061034022280</t>
+            <t xml:space="preserve">061008003537</t>
           </r>
         </is>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="F69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -5821,14 +5821,14 @@
       <c r="H69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10641129-8</t>
+            <t xml:space="preserve">25902248-7</t>
           </r>
         </is>
       </c>
       <c r="I69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MOLLO GONZALEZ JUAN ALFREDO</t>
+            <t xml:space="preserve">CARRILLO ALVIAREZ JEORGIA AURO</t>
           </r>
         </is>
       </c>
@@ -5842,14 +5842,14 @@
       <c r="K69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">171757908</t>
+            <t xml:space="preserve">5470106753</t>
           </r>
         </is>
       </c>
       <c r="L69" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">150.000</t>
+            <t xml:space="preserve">236.843</t>
           </r>
         </is>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="A70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061058039176</t>
+            <t xml:space="preserve">061018049987</t>
           </r>
         </is>
       </c>
@@ -5906,14 +5906,14 @@
       <c r="H70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17287114-3</t>
+            <t xml:space="preserve">12371263-3</t>
           </r>
         </is>
       </c>
       <c r="I70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BELLO BELLO ROSSE MERY DEL CAR</t>
+            <t xml:space="preserve">REYES VILLALOBOS MARIA ALEJAND</t>
           </r>
         </is>
       </c>
@@ -5927,14 +5927,14 @@
       <c r="K70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35771016306</t>
+            <t xml:space="preserve">42970054094</t>
           </r>
         </is>
       </c>
       <c r="L70" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">105.670</t>
+            <t xml:space="preserve">324.357</t>
           </r>
         </is>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="A71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061155029758</t>
+            <t xml:space="preserve">061034022280</t>
           </r>
         </is>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="F71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -5991,14 +5991,14 @@
       <c r="H71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17332390-5</t>
+            <t xml:space="preserve">10641129-8</t>
           </r>
         </is>
       </c>
       <c r="I71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">IBANEZ CHACON LEANDRO ENRIQUE</t>
+            <t xml:space="preserve">MOLLO GONZALEZ JUAN ALFREDO</t>
           </r>
         </is>
       </c>
@@ -6012,14 +6012,14 @@
       <c r="K71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44770257228</t>
+            <t xml:space="preserve">171757908</t>
           </r>
         </is>
       </c>
       <c r="L71" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">297.882</t>
+            <t xml:space="preserve">150.000</t>
           </r>
         </is>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="A72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061334085890</t>
+            <t xml:space="preserve">061058039176</t>
           </r>
         </is>
       </c>
@@ -6076,14 +6076,14 @@
       <c r="H72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17937032-8</t>
+            <t xml:space="preserve">17287114-3</t>
           </r>
         </is>
       </c>
       <c r="I72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROJAS PAEZ LISSETTE JOSELYN</t>
+            <t xml:space="preserve">BELLO BELLO ROSSE MERY DEL CAR</t>
           </r>
         </is>
       </c>
@@ -6097,14 +6097,14 @@
       <c r="K72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2572068415</t>
+            <t xml:space="preserve">35771016306</t>
           </r>
         </is>
       </c>
       <c r="L72" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">250.000</t>
+            <t xml:space="preserve">105.670</t>
           </r>
         </is>
       </c>
@@ -6118,7 +6118,7 @@
       <c r="A73" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061356017362</t>
+            <t xml:space="preserve">061155029758</t>
           </r>
         </is>
       </c>
@@ -6161,14 +6161,14 @@
       <c r="H73" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13662516-0</t>
+            <t xml:space="preserve">17332390-5</t>
           </r>
         </is>
       </c>
       <c r="I73" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CISTERNA CONTRERAS JOSE EMILIO</t>
+            <t xml:space="preserve">IBANEZ CHACON LEANDRO ENRIQUE</t>
           </r>
         </is>
       </c>
@@ -6182,14 +6182,14 @@
       <c r="K73" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35270484024</t>
+            <t xml:space="preserve">44770257228</t>
           </r>
         </is>
       </c>
       <c r="L73" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">212.978</t>
+            <t xml:space="preserve">297.882</t>
           </r>
         </is>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="A74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061402047083</t>
+            <t xml:space="preserve">061334085890</t>
           </r>
         </is>
       </c>
@@ -6246,14 +6246,14 @@
       <c r="H74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14661318-7</t>
+            <t xml:space="preserve">17937032-8</t>
           </r>
         </is>
       </c>
       <c r="I74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SAENZ ROJAS JORGE ENRIQUE</t>
+            <t xml:space="preserve">ROJAS PAEZ LISSETTE JOSELYN</t>
           </r>
         </is>
       </c>
@@ -6267,14 +6267,14 @@
       <c r="K74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7804326</t>
+            <t xml:space="preserve">2572068415</t>
           </r>
         </is>
       </c>
       <c r="L74" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">69.144</t>
+            <t xml:space="preserve">250.000</t>
           </r>
         </is>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="A75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061408081465</t>
+            <t xml:space="preserve">061356017362</t>
           </r>
         </is>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="F75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -6331,14 +6331,14 @@
       <c r="H75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11718915-5</t>
+            <t xml:space="preserve">13662516-0</t>
           </r>
         </is>
       </c>
       <c r="I75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OYARZUN CHIGUAY LUIS ALBERTO</t>
+            <t xml:space="preserve">CISTERNA CONTRERAS JOSE EMILIO</t>
           </r>
         </is>
       </c>
@@ -6352,14 +6352,14 @@
       <c r="K75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">83770313107</t>
+            <t xml:space="preserve">35270484024</t>
           </r>
         </is>
       </c>
       <c r="L75" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40.000</t>
+            <t xml:space="preserve">212.978</t>
           </r>
         </is>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="A76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061449096630</t>
+            <t xml:space="preserve">061402047083</t>
           </r>
         </is>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="F76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -6416,14 +6416,14 @@
       <c r="H76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21442542-4</t>
+            <t xml:space="preserve">14661318-7</t>
           </r>
         </is>
       </c>
       <c r="I76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MERCADO BARRETO STEPHANY MARIA</t>
+            <t xml:space="preserve">SAENZ ROJAS JORGE ENRIQUE</t>
           </r>
         </is>
       </c>
@@ -6437,14 +6437,14 @@
       <c r="K76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35670938261</t>
+            <t xml:space="preserve">7804326</t>
           </r>
         </is>
       </c>
       <c r="L76" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">780</t>
+            <t xml:space="preserve">69.144</t>
           </r>
         </is>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="A77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061538043597</t>
+            <t xml:space="preserve">061408081465</t>
           </r>
         </is>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="F77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -6501,14 +6501,14 @@
       <c r="H77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12914081-K</t>
+            <t xml:space="preserve">11718915-5</t>
           </r>
         </is>
       </c>
       <c r="I77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LAGOS CATALDO SUSANA PATRICIA</t>
+            <t xml:space="preserve">OYARZUN CHIGUAY LUIS ALBERTO</t>
           </r>
         </is>
       </c>
@@ -6522,14 +6522,14 @@
       <c r="K77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39000024434</t>
+            <t xml:space="preserve">83770313107</t>
           </r>
         </is>
       </c>
       <c r="L77" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">579.452</t>
+            <t xml:space="preserve">40.000</t>
           </r>
         </is>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="A78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061601061191</t>
+            <t xml:space="preserve">061449096630</t>
           </r>
         </is>
       </c>
@@ -6586,14 +6586,14 @@
       <c r="H78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15996292-K</t>
+            <t xml:space="preserve">21442542-4</t>
           </r>
         </is>
       </c>
       <c r="I78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PEREIRA PEREIRA LIDIA ELIA</t>
+            <t xml:space="preserve">MERCADO BARRETO STEPHANY MARIA</t>
           </r>
         </is>
       </c>
@@ -6607,14 +6607,14 @@
       <c r="K78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39170205271</t>
+            <t xml:space="preserve">35670938261</t>
           </r>
         </is>
       </c>
       <c r="L78" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">138.350</t>
+            <t xml:space="preserve">780</t>
           </r>
         </is>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="A79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061642072489</t>
+            <t xml:space="preserve">061538043597</t>
           </r>
         </is>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="F79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -6671,14 +6671,14 @@
       <c r="H79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17028229-9</t>
+            <t xml:space="preserve">12914081-K</t>
           </r>
         </is>
       </c>
       <c r="I79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SEPULVEDA GAJARDO KARINA ANDRE</t>
+            <t xml:space="preserve">LAGOS CATALDO SUSANA PATRICIA</t>
           </r>
         </is>
       </c>
@@ -6692,14 +6692,14 @@
       <c r="K79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34870856786</t>
+            <t xml:space="preserve">39000024434</t>
           </r>
         </is>
       </c>
       <c r="L79" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.000</t>
+            <t xml:space="preserve">579.452</t>
           </r>
         </is>
       </c>
@@ -6713,7 +6713,7 @@
       <c r="A80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061652020759</t>
+            <t xml:space="preserve">061601061191</t>
           </r>
         </is>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="F80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -6756,14 +6756,14 @@
       <c r="H80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11524856-1</t>
+            <t xml:space="preserve">15996292-K</t>
           </r>
         </is>
       </c>
       <c r="I80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PAREDES MOLINA MAURICIO ANDRES</t>
+            <t xml:space="preserve">PEREIRA PEREIRA LIDIA ELIA</t>
           </r>
         </is>
       </c>
@@ -6777,14 +6777,14 @@
       <c r="K80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29470596293</t>
+            <t xml:space="preserve">39170205271</t>
           </r>
         </is>
       </c>
       <c r="L80" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">97.235</t>
+            <t xml:space="preserve">138.350</t>
           </r>
         </is>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="A81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061847054066</t>
+            <t xml:space="preserve">061642072489</t>
           </r>
         </is>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="F81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -6841,14 +6841,14 @@
       <c r="H81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16537495-9</t>
+            <t xml:space="preserve">17028229-9</t>
           </r>
         </is>
       </c>
       <c r="I81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PARADA BARRERA PILAR ANDREA</t>
+            <t xml:space="preserve">SEPULVEDA GAJARDO KARINA ANDRE</t>
           </r>
         </is>
       </c>
@@ -6862,14 +6862,14 @@
       <c r="K81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">173209185</t>
+            <t xml:space="preserve">34870856786</t>
           </r>
         </is>
       </c>
       <c r="L81" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">47.374</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="A82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061858016406</t>
+            <t xml:space="preserve">061652020759</t>
           </r>
         </is>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="F82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -6926,14 +6926,14 @@
       <c r="H82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15516152-3</t>
+            <t xml:space="preserve">11524856-1</t>
           </r>
         </is>
       </c>
       <c r="I82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AGUILA BARRIA ROXANA ANDREA</t>
+            <t xml:space="preserve">PAREDES MOLINA MAURICIO ANDRES</t>
           </r>
         </is>
       </c>
@@ -6947,14 +6947,14 @@
       <c r="K82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">84770008483</t>
+            <t xml:space="preserve">29470596293</t>
           </r>
         </is>
       </c>
       <c r="L82" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.000</t>
+            <t xml:space="preserve">97.235</t>
           </r>
         </is>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="A83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">061950098633</t>
+            <t xml:space="preserve">061847054066</t>
           </r>
         </is>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="F83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682420</t>
           </r>
         </is>
       </c>
@@ -7011,14 +7011,14 @@
       <c r="H83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18145560-8</t>
+            <t xml:space="preserve">16537495-9</t>
           </r>
         </is>
       </c>
       <c r="I83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MORENO REES IGNACIO ALEJANDRO</t>
+            <t xml:space="preserve">PARADA BARRERA PILAR ANDREA</t>
           </r>
         </is>
       </c>
@@ -7032,14 +7032,14 @@
       <c r="K83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53770289498</t>
+            <t xml:space="preserve">173209185</t>
           </r>
         </is>
       </c>
       <c r="L83" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">287.050</t>
+            <t xml:space="preserve">47.374</t>
           </r>
         </is>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="A84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">066441074350</t>
+            <t xml:space="preserve">061858016406</t>
           </r>
         </is>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="F84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -7096,14 +7096,14 @@
       <c r="H84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9679269-7</t>
+            <t xml:space="preserve">15516152-3</t>
           </r>
         </is>
       </c>
       <c r="I84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GEBERT MACAYA KAREN TERESA</t>
+            <t xml:space="preserve">AGUILA BARRIA ROXANA ANDREA</t>
           </r>
         </is>
       </c>
@@ -7117,14 +7117,14 @@
       <c r="K84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9679269</t>
+            <t xml:space="preserve">84770008483</t>
           </r>
         </is>
       </c>
       <c r="L84" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">117.684</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="A85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">067300006583</t>
+            <t xml:space="preserve">061950098633</t>
           </r>
         </is>
       </c>
@@ -7167,7 +7167,7 @@
       <c r="F85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -7181,14 +7181,14 @@
       <c r="H85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13460951-6</t>
+            <t xml:space="preserve">18145560-8</t>
           </r>
         </is>
       </c>
       <c r="I85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BRAVO GOMEZ SERGIO SEGUNDO</t>
+            <t xml:space="preserve">MORENO REES IGNACIO ALEJANDRO</t>
           </r>
         </is>
       </c>
@@ -7202,14 +7202,14 @@
       <c r="K85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13460951</t>
+            <t xml:space="preserve">53770289498</t>
           </r>
         </is>
       </c>
       <c r="L85" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">48.709</t>
+            <t xml:space="preserve">287.050</t>
           </r>
         </is>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="A86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">070947065591</t>
+            <t xml:space="preserve">066441074350</t>
           </r>
         </is>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="C86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -7266,14 +7266,14 @@
       <c r="H86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19301903-K</t>
+            <t xml:space="preserve">9679269-7</t>
           </r>
         </is>
       </c>
       <c r="I86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BUGUENO RODRIGUEZ BARBARA GISS</t>
+            <t xml:space="preserve">GEBERT MACAYA KAREN TERESA</t>
           </r>
         </is>
       </c>
@@ -7287,14 +7287,14 @@
       <c r="K86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13370743724</t>
+            <t xml:space="preserve">9679269</t>
           </r>
         </is>
       </c>
       <c r="L86" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">229.152</t>
+            <t xml:space="preserve">117.684</t>
           </r>
         </is>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="A87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">071027033132</t>
+            <t xml:space="preserve">067300006583</t>
           </r>
         </is>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="C87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="F87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -7351,14 +7351,14 @@
       <c r="H87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8329877-4</t>
+            <t xml:space="preserve">13460951-6</t>
           </r>
         </is>
       </c>
       <c r="I87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RODRIGUEZ PADILLA JORGE ANGEL</t>
+            <t xml:space="preserve">BRAVO GOMEZ SERGIO SEGUNDO</t>
           </r>
         </is>
       </c>
@@ -7372,14 +7372,14 @@
       <c r="K87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1411381</t>
+            <t xml:space="preserve">13460951</t>
           </r>
         </is>
       </c>
       <c r="L87" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">200.000</t>
+            <t xml:space="preserve">48.709</t>
           </r>
         </is>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="A88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115525486460</t>
+            <t xml:space="preserve">070947065591</t>
           </r>
         </is>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="C88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="F88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -7436,35 +7436,35 @@
       <c r="H88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15682249-3</t>
+            <t xml:space="preserve">19301903-K</t>
           </r>
         </is>
       </c>
       <c r="I88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Ruby Alejandra Gatica</t>
+            <t xml:space="preserve">BUGUENO RODRIGUEZ BARBARA GISS</t>
           </r>
         </is>
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco de Chile-Edwards</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">106216252</t>
+            <t xml:space="preserve">13370743724</t>
           </r>
         </is>
       </c>
       <c r="L88" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">223.237</t>
+            <t xml:space="preserve">229.152</t>
           </r>
         </is>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="A89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115526244090</t>
+            <t xml:space="preserve">071027033132</t>
           </r>
         </is>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="C89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="F89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -7521,35 +7521,35 @@
       <c r="H89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17525552-4</t>
+            <t xml:space="preserve">8329877-4</t>
           </r>
         </is>
       </c>
       <c r="I89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Natalia Carolina Diaz</t>
+            <t xml:space="preserve">RODRIGUEZ PADILLA JORGE ANGEL</t>
           </r>
         </is>
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco de Chile-Edwards</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">166522019</t>
+            <t xml:space="preserve">1411381</t>
           </r>
         </is>
       </c>
       <c r="L89" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50.423</t>
+            <t xml:space="preserve">200.000</t>
           </r>
         </is>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="A90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115526733770</t>
+            <t xml:space="preserve">076319079679</t>
           </r>
         </is>
       </c>
@@ -7571,7 +7571,7 @@
       <c r="C90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="F90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13332473</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -7606,35 +7606,35 @@
       <c r="H90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19080736-3</t>
+            <t xml:space="preserve">11385625-4</t>
           </r>
         </is>
       </c>
       <c r="I90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Camila Francisca Sepul</t>
+            <t xml:space="preserve">AGUILERA CARVAJAL PAULA ANDREA</t>
           </r>
         </is>
       </c>
       <c r="J90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco de Chile-Edwards</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1642564105</t>
+            <t xml:space="preserve">11385625</t>
           </r>
         </is>
       </c>
       <c r="L90" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1.000.000</t>
+            <t xml:space="preserve">131.783</t>
           </r>
         </is>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="A91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115561398530</t>
+            <t xml:space="preserve">076405087864</t>
           </r>
         </is>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="C91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -7691,35 +7691,35 @@
       <c r="H91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16376709-0</t>
+            <t xml:space="preserve">9606102-1</t>
           </r>
         </is>
       </c>
       <c r="I91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Patricio Antonio Cerda</t>
+            <t xml:space="preserve">SAGREDO JOFRE CRISTIAN FABIAN</t>
           </r>
         </is>
       </c>
       <c r="J91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco de Chile-Edwards</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8004250507</t>
+            <t xml:space="preserve">9606102</t>
           </r>
         </is>
       </c>
       <c r="L91" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">143.168</t>
+            <t xml:space="preserve">135.702</t>
           </r>
         </is>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="A92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115569284260</t>
+            <t xml:space="preserve">076446011386</t>
           </r>
         </is>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="C92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">04/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -7776,35 +7776,35 @@
       <c r="H92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17022956-8</t>
+            <t xml:space="preserve">10089348-7</t>
           </r>
         </is>
       </c>
       <c r="I92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Daniela Andrea Troncos</t>
+            <t xml:space="preserve">CACERES MAGANA MARIA CAROLINA</t>
           </r>
         </is>
       </c>
       <c r="J92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco de Chile-Edwards</t>
+            <t xml:space="preserve">Banco Del Estado de Chile</t>
           </r>
         </is>
       </c>
       <c r="K92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">564824043</t>
+            <t xml:space="preserve">10089348</t>
           </r>
         </is>
       </c>
       <c r="L92" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53.642</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="A93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115583184380</t>
+            <t xml:space="preserve">115525486460</t>
           </r>
         </is>
       </c>
@@ -7826,7 +7826,7 @@
       <c r="C93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="F93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -7861,14 +7861,14 @@
       <c r="H93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76405042-8</t>
+            <t xml:space="preserve">15682249-3</t>
           </r>
         </is>
       </c>
       <c r="I93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Construcciones Jose Emiliano V</t>
+            <t xml:space="preserve">Ruby Alejandra Gatica</t>
           </r>
         </is>
       </c>
@@ -7882,14 +7882,14 @@
       <c r="K93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1880741603</t>
+            <t xml:space="preserve">106216252</t>
           </r>
         </is>
       </c>
       <c r="L93" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">509.609</t>
+            <t xml:space="preserve">223.237</t>
           </r>
         </is>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="A94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115583512300</t>
+            <t xml:space="preserve">115526244090</t>
           </r>
         </is>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="C94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="F94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -7946,14 +7946,14 @@
       <c r="H94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13342348-6</t>
+            <t xml:space="preserve">17525552-4</t>
           </r>
         </is>
       </c>
       <c r="I94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Karem Alejandra Espino</t>
+            <t xml:space="preserve">Natalia Carolina Diaz</t>
           </r>
         </is>
       </c>
@@ -7967,14 +7967,14 @@
       <c r="K94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">152322004</t>
+            <t xml:space="preserve">166522019</t>
           </r>
         </is>
       </c>
       <c r="L94" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">173.420</t>
+            <t xml:space="preserve">50.423</t>
           </r>
         </is>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="A95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115583843490</t>
+            <t xml:space="preserve">115526733770</t>
           </r>
         </is>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="C95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="F95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">13332473</t>
           </r>
         </is>
       </c>
@@ -8031,14 +8031,14 @@
       <c r="H95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17166603-1</t>
+            <t xml:space="preserve">19080736-3</t>
           </r>
         </is>
       </c>
       <c r="I95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Danae Violeta Ahumada</t>
+            <t xml:space="preserve">Camila Francisca Sepul</t>
           </r>
         </is>
       </c>
@@ -8052,14 +8052,14 @@
       <c r="K95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2050461108</t>
+            <t xml:space="preserve">1642564105</t>
           </r>
         </is>
       </c>
       <c r="L95" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">233.815</t>
+            <t xml:space="preserve">1.000.000</t>
           </r>
         </is>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="A96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115587057770</t>
+            <t xml:space="preserve">115561398530</t>
           </r>
         </is>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="C96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -8116,14 +8116,14 @@
       <c r="H96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10426551-0</t>
+            <t xml:space="preserve">16376709-0</t>
           </r>
         </is>
       </c>
       <c r="I96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Claudio Antonio Lara</t>
+            <t xml:space="preserve">Patricio Antonio Cerda</t>
           </r>
         </is>
       </c>
@@ -8137,14 +8137,14 @@
       <c r="K96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">137323275</t>
+            <t xml:space="preserve">8004250507</t>
           </r>
         </is>
       </c>
       <c r="L96" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">194.168</t>
+            <t xml:space="preserve">143.168</t>
           </r>
         </is>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="A97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115589287020</t>
+            <t xml:space="preserve">115569284260</t>
           </r>
         </is>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="C97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">04/08/2024</t>
           </r>
         </is>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="F97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -8201,14 +8201,14 @@
       <c r="H97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14092433-4</t>
+            <t xml:space="preserve">17022956-8</t>
           </r>
         </is>
       </c>
       <c r="I97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Viviana  Dalila Huicha</t>
+            <t xml:space="preserve">Daniela Andrea Troncos</t>
           </r>
         </is>
       </c>
@@ -8222,14 +8222,14 @@
       <c r="K97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">62190079932</t>
+            <t xml:space="preserve">564824043</t>
           </r>
         </is>
       </c>
       <c r="L97" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">293.016</t>
+            <t xml:space="preserve">53.642</t>
           </r>
         </is>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="A98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115592271390</t>
+            <t xml:space="preserve">115583184380</t>
           </r>
         </is>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="F98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -8286,14 +8286,14 @@
       <c r="H98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18274275-9</t>
+            <t xml:space="preserve">76405042-8</t>
           </r>
         </is>
       </c>
       <c r="I98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Katherine Tamara Casti</t>
+            <t xml:space="preserve">Construcciones Jose Emiliano V</t>
           </r>
         </is>
       </c>
@@ -8307,14 +8307,14 @@
       <c r="K98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">165944110</t>
+            <t xml:space="preserve">1880741603</t>
           </r>
         </is>
       </c>
       <c r="L98" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">109.194</t>
+            <t xml:space="preserve">509.609</t>
           </r>
         </is>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="A99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115593722390</t>
+            <t xml:space="preserve">115583512300</t>
           </r>
         </is>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="C99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="F99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -8371,14 +8371,14 @@
       <c r="H99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76214646-0</t>
+            <t xml:space="preserve">13342348-6</t>
           </r>
         </is>
       </c>
       <c r="I99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SERVICIOS NOVORED LIMITADA</t>
+            <t xml:space="preserve">Karem Alejandra Espino</t>
           </r>
         </is>
       </c>
@@ -8392,14 +8392,14 @@
       <c r="K99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1810462002</t>
+            <t xml:space="preserve">152322004</t>
           </r>
         </is>
       </c>
       <c r="L99" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">338.415</t>
+            <t xml:space="preserve">173.420</t>
           </r>
         </is>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="A100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115594169570</t>
+            <t xml:space="preserve">115583843490</t>
           </r>
         </is>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="C100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -8456,14 +8456,14 @@
       <c r="H100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9482392-7</t>
+            <t xml:space="preserve">17166603-1</t>
           </r>
         </is>
       </c>
       <c r="I100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Cecilia Del Rosario Montecinos</t>
+            <t xml:space="preserve">Danae Violeta Ahumada</t>
           </r>
         </is>
       </c>
@@ -8477,14 +8477,14 @@
       <c r="K100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4310233306</t>
+            <t xml:space="preserve">2050461108</t>
           </r>
         </is>
       </c>
       <c r="L100" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">500.745</t>
+            <t xml:space="preserve">233.815</t>
           </r>
         </is>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="A101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115594808110</t>
+            <t xml:space="preserve">115587057770</t>
           </r>
         </is>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="C101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -8541,14 +8541,14 @@
       <c r="H101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16387237-4</t>
+            <t xml:space="preserve">10426551-0</t>
           </r>
         </is>
       </c>
       <c r="I101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Ema Cecilia Araya Olave</t>
+            <t xml:space="preserve">Claudio Antonio Lara</t>
           </r>
         </is>
       </c>
@@ -8562,14 +8562,14 @@
       <c r="K101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8210627305</t>
+            <t xml:space="preserve">137323275</t>
           </r>
         </is>
       </c>
       <c r="L101" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">99.947</t>
+            <t xml:space="preserve">194.168</t>
           </r>
         </is>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="A102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115595456530</t>
+            <t xml:space="preserve">115589287020</t>
           </r>
         </is>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="C102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -8626,14 +8626,14 @@
       <c r="H102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18518112-K</t>
+            <t xml:space="preserve">14092433-4</t>
           </r>
         </is>
       </c>
       <c r="I102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Hector Gabriel Rojas</t>
+            <t xml:space="preserve">Viviana  Dalila Huicha</t>
           </r>
         </is>
       </c>
@@ -8647,14 +8647,14 @@
       <c r="K102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1102094207</t>
+            <t xml:space="preserve">62190079932</t>
           </r>
         </is>
       </c>
       <c r="L102" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">492.668</t>
+            <t xml:space="preserve">293.016</t>
           </r>
         </is>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="A103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115595610290</t>
+            <t xml:space="preserve">115592271390</t>
           </r>
         </is>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="C103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="F103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -8711,14 +8711,14 @@
       <c r="H103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13664583-8</t>
+            <t xml:space="preserve">18274275-9</t>
           </r>
         </is>
       </c>
       <c r="I103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Guillermo Carlos De La</t>
+            <t xml:space="preserve">Katherine Tamara Casti</t>
           </r>
         </is>
       </c>
@@ -8732,14 +8732,14 @@
       <c r="K103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1800616508</t>
+            <t xml:space="preserve">165944110</t>
           </r>
         </is>
       </c>
       <c r="L103" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">350.000</t>
+            <t xml:space="preserve">109.194</t>
           </r>
         </is>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="A104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115597057740</t>
+            <t xml:space="preserve">115593722390</t>
           </r>
         </is>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="F104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13336959</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -8796,14 +8796,14 @@
       <c r="H104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96895700-7</t>
+            <t xml:space="preserve">76214646-0</t>
           </r>
         </is>
       </c>
       <c r="I104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NEXT S.A.</t>
+            <t xml:space="preserve">SERVICIOS NOVORED LIMITADA</t>
           </r>
         </is>
       </c>
@@ -8817,14 +8817,14 @@
       <c r="K104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10365702</t>
+            <t xml:space="preserve">1810462002</t>
           </r>
         </is>
       </c>
       <c r="L104" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6.133</t>
+            <t xml:space="preserve">338.415</t>
           </r>
         </is>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="A105" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115597106610</t>
+            <t xml:space="preserve">115594169570</t>
           </r>
         </is>
       </c>
@@ -8881,14 +8881,14 @@
       <c r="H105" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17374232-0</t>
+            <t xml:space="preserve">9482392-7</t>
           </r>
         </is>
       </c>
       <c r="I105" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Basthian Nicolas Salga</t>
+            <t xml:space="preserve">Cecilia Del Rosario Montecinos</t>
           </r>
         </is>
       </c>
@@ -8902,14 +8902,14 @@
       <c r="K105" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">67523340</t>
+            <t xml:space="preserve">4310233306</t>
           </r>
         </is>
       </c>
       <c r="L105" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">149.847</t>
+            <t xml:space="preserve">500.745</t>
           </r>
         </is>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="A106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115597277730</t>
+            <t xml:space="preserve">115594808110</t>
           </r>
         </is>
       </c>
@@ -8966,14 +8966,14 @@
       <c r="H106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13075826-6</t>
+            <t xml:space="preserve">16387237-4</t>
           </r>
         </is>
       </c>
       <c r="I106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Jeannette Del Carmen Guajardo</t>
+            <t xml:space="preserve">Ema Cecilia Araya Olave</t>
           </r>
         </is>
       </c>
@@ -8987,14 +8987,14 @@
       <c r="K106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">580924186</t>
+            <t xml:space="preserve">8210627305</t>
           </r>
         </is>
       </c>
       <c r="L106" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">68.865</t>
+            <t xml:space="preserve">99.947</t>
           </r>
         </is>
       </c>
@@ -9008,7 +9008,7 @@
       <c r="A107" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115605100060</t>
+            <t xml:space="preserve">115595456530</t>
           </r>
         </is>
       </c>
@@ -9051,14 +9051,14 @@
       <c r="H107" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15181997-4</t>
+            <t xml:space="preserve">18518112-K</t>
           </r>
         </is>
       </c>
       <c r="I107" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Felipe Esteban Delfin</t>
+            <t xml:space="preserve">Hector Gabriel Rojas</t>
           </r>
         </is>
       </c>
@@ -9072,14 +9072,14 @@
       <c r="K107" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1015058</t>
+            <t xml:space="preserve">1102094207</t>
           </r>
         </is>
       </c>
       <c r="L107" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">385.737</t>
+            <t xml:space="preserve">492.668</t>
           </r>
         </is>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="A108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115608072920</t>
+            <t xml:space="preserve">115595610290</t>
           </r>
         </is>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="C108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -9136,14 +9136,14 @@
       <c r="H108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11563517-4</t>
+            <t xml:space="preserve">13664583-8</t>
           </r>
         </is>
       </c>
       <c r="I108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Jose Marcelo Maldonado</t>
+            <t xml:space="preserve">Guillermo Carlos De La</t>
           </r>
         </is>
       </c>
@@ -9157,14 +9157,14 @@
       <c r="K108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">193195244629</t>
+            <t xml:space="preserve">1800616508</t>
           </r>
         </is>
       </c>
       <c r="L108" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">157.291</t>
+            <t xml:space="preserve">350.000</t>
           </r>
         </is>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="A109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">115608648850</t>
+            <t xml:space="preserve">115597057740</t>
           </r>
         </is>
       </c>
@@ -9186,7 +9186,7 @@
       <c r="C109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="F109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">13336959</t>
           </r>
         </is>
       </c>
@@ -9221,14 +9221,14 @@
       <c r="H109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13664583-8</t>
+            <t xml:space="preserve">96895700-7</t>
           </r>
         </is>
       </c>
       <c r="I109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Guillermo Carlos De La</t>
+            <t xml:space="preserve">NEXT S.A.</t>
           </r>
         </is>
       </c>
@@ -9242,14 +9242,14 @@
       <c r="K109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1800616508</t>
+            <t xml:space="preserve">10365702</t>
           </r>
         </is>
       </c>
       <c r="L109" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1.552.625</t>
+            <t xml:space="preserve">6.133</t>
           </r>
         </is>
       </c>
@@ -9263,7 +9263,7 @@
       <c r="A110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">123497353339</t>
+            <t xml:space="preserve">115597106610</t>
           </r>
         </is>
       </c>
@@ -9292,7 +9292,7 @@
       <c r="F110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -9306,35 +9306,35 @@
       <c r="H110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27071375-0</t>
+            <t xml:space="preserve">17374232-0</t>
           </r>
         </is>
       </c>
       <c r="I110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">WILLIAM ALBERTO MONTIEL ACEDO</t>
+            <t xml:space="preserve">Basthian Nicolas Salga</t>
           </r>
         </is>
       </c>
       <c r="J110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15040323951</t>
+            <t xml:space="preserve">67523340</t>
           </r>
         </is>
       </c>
       <c r="L110" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">297.500</t>
+            <t xml:space="preserve">149.847</t>
           </r>
         </is>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="A111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">172288636118</t>
+            <t xml:space="preserve">115597277730</t>
           </r>
         </is>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="C111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -9391,35 +9391,35 @@
       <c r="H111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19707420-5</t>
+            <t xml:space="preserve">13075826-6</t>
           </r>
         </is>
       </c>
       <c r="I111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CAROLAYN SCARLETT</t>
+            <t xml:space="preserve">Jeannette Del Carmen Guajardo</t>
           </r>
         </is>
       </c>
       <c r="J111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco no informado</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">135798</t>
+            <t xml:space="preserve">580924186</t>
           </r>
         </is>
       </c>
       <c r="L111" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">172.856</t>
+            <t xml:space="preserve">68.865</t>
           </r>
         </is>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="A112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">240803329289</t>
+            <t xml:space="preserve">115605100060</t>
           </r>
         </is>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="C112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="F112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -9476,35 +9476,35 @@
       <c r="H112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14191128-7</t>
+            <t xml:space="preserve">15181997-4</t>
           </r>
         </is>
       </c>
       <c r="I112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OCARANZA LEPE FABIAN ANDRES</t>
+            <t xml:space="preserve">Felipe Esteban Delfin</t>
           </r>
         </is>
       </c>
       <c r="J112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Scotiabank Sudamericano</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4390045734</t>
+            <t xml:space="preserve">1015058</t>
           </r>
         </is>
       </c>
       <c r="L112" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.000</t>
+            <t xml:space="preserve">385.737</t>
           </r>
         </is>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="A113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">240805765228</t>
+            <t xml:space="preserve">115608072920</t>
           </r>
         </is>
       </c>
@@ -9526,7 +9526,7 @@
       <c r="C113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -9561,35 +9561,35 @@
       <c r="H113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13540210-9</t>
+            <t xml:space="preserve">11563517-4</t>
           </r>
         </is>
       </c>
       <c r="I113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ILLANES GAJARDO JORGE ANDRES</t>
+            <t xml:space="preserve">Jose Marcelo Maldonado</t>
           </r>
         </is>
       </c>
       <c r="J113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Scotiabank Sudamericano</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">981691407</t>
+            <t xml:space="preserve">193195244629</t>
           </r>
         </is>
       </c>
       <c r="L113" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">408.502</t>
+            <t xml:space="preserve">157.291</t>
           </r>
         </is>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="A114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">240806019786</t>
+            <t xml:space="preserve">115608648850</t>
           </r>
         </is>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="C114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -9646,35 +9646,35 @@
       <c r="H114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16009076-6</t>
+            <t xml:space="preserve">13664583-8</t>
           </r>
         </is>
       </c>
       <c r="I114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AGUILERA RUDOLPH PAULA FERNAND</t>
+            <t xml:space="preserve">Guillermo Carlos De La</t>
           </r>
         </is>
       </c>
       <c r="J114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Scotiabank Sudamericano</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">960078515</t>
+            <t xml:space="preserve">1800616508</t>
           </r>
         </is>
       </c>
       <c r="L114" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">155.188</t>
+            <t xml:space="preserve">1.552.625</t>
           </r>
         </is>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="A115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">240806022919</t>
+            <t xml:space="preserve">115611441070</t>
           </r>
         </is>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="C115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -9731,35 +9731,35 @@
       <c r="H115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17524580-4</t>
+            <t xml:space="preserve">13083389-6</t>
           </r>
         </is>
       </c>
       <c r="I115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ESPINOZA PAVEZ JORGE ANDRES</t>
+            <t xml:space="preserve">Raul Albert Altamirano</t>
           </r>
         </is>
       </c>
       <c r="J115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Scotiabank Sudamericano</t>
+            <t xml:space="preserve">Banco de Chile-Edwards</t>
           </r>
         </is>
       </c>
       <c r="K115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">975308057</t>
+            <t xml:space="preserve">193192354920</t>
           </r>
         </is>
       </c>
       <c r="L115" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">277.763</t>
+            <t xml:space="preserve">218.240</t>
           </r>
         </is>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="A116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">240806123345</t>
+            <t xml:space="preserve">123497353339</t>
           </r>
         </is>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="F116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -9816,35 +9816,35 @@
       <c r="H116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12468726-8</t>
+            <t xml:space="preserve">27071375-0</t>
           </r>
         </is>
       </c>
       <c r="I116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MENESES RAMIREZ JUANA IVONNE</t>
+            <t xml:space="preserve">WILLIAM ALBERTO MONTIEL ACEDO</t>
           </r>
         </is>
       </c>
       <c r="J116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Scotiabank Sudamericano</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">974155966</t>
+            <t xml:space="preserve">15040323951</t>
           </r>
         </is>
       </c>
       <c r="L116" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">338.394</t>
+            <t xml:space="preserve">297.500</t>
           </r>
         </is>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="A117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">242155910081</t>
+            <t xml:space="preserve">172288636118</t>
           </r>
         </is>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="C117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -9901,35 +9901,35 @@
       <c r="H117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">77572396-3</t>
+            <t xml:space="preserve">19707420-5</t>
           </r>
         </is>
       </c>
       <c r="I117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TRANSPORTES CORDOVA SPA</t>
+            <t xml:space="preserve">CAROLAYN SCARLETT</t>
           </r>
         </is>
       </c>
       <c r="J117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Itau Corpbanca</t>
+            <t xml:space="preserve">Banco no informado</t>
           </r>
         </is>
       </c>
       <c r="K117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">390001000223952075</t>
+            <t xml:space="preserve">135798</t>
           </r>
         </is>
       </c>
       <c r="L117" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1.057.797</t>
+            <t xml:space="preserve">172.856</t>
           </r>
         </is>
       </c>
@@ -9943,7 +9943,7 @@
       <c r="A118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">242156042001</t>
+            <t xml:space="preserve">240803329289</t>
           </r>
         </is>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="C118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="F118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -9986,35 +9986,35 @@
       <c r="H118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7174639-9</t>
+            <t xml:space="preserve">14191128-7</t>
           </r>
         </is>
       </c>
       <c r="I118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RICARDO MACULET CLASSING</t>
+            <t xml:space="preserve">OCARANZA LEPE FABIAN ANDRES</t>
           </r>
         </is>
       </c>
       <c r="J118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Itau Corpbanca</t>
+            <t xml:space="preserve">Scotiabank Sudamericano</t>
           </r>
         </is>
       </c>
       <c r="K118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">390001000223159279</t>
+            <t xml:space="preserve">4390045734</t>
           </r>
         </is>
       </c>
       <c r="L118" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">314.268</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -10028,7 +10028,7 @@
       <c r="A119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">242193612331</t>
+            <t xml:space="preserve">240805765228</t>
           </r>
         </is>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="C119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -10071,35 +10071,35 @@
       <c r="H119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14126691-8</t>
+            <t xml:space="preserve">13540210-9</t>
           </r>
         </is>
       </c>
       <c r="I119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JOHANA MARGARITA ARANDA VALDES</t>
+            <t xml:space="preserve">ILLANES GAJARDO JORGE ANDRES</t>
           </r>
         </is>
       </c>
       <c r="J119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Itau Corpbanca</t>
+            <t xml:space="preserve">Scotiabank Sudamericano</t>
           </r>
         </is>
       </c>
       <c r="K119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">390001000209956208</t>
+            <t xml:space="preserve">981691407</t>
           </r>
         </is>
       </c>
       <c r="L119" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">463.813</t>
+            <t xml:space="preserve">408.502</t>
           </r>
         </is>
       </c>
@@ -10113,7 +10113,7 @@
       <c r="A120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">287831232820</t>
+            <t xml:space="preserve">240806019786</t>
           </r>
         </is>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="C120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -10156,35 +10156,35 @@
       <c r="H120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25968847-7</t>
+            <t xml:space="preserve">16009076-6</t>
           </r>
         </is>
       </c>
       <c r="I120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MISAEL ANGEL LIZARDO MARRIAGA</t>
+            <t xml:space="preserve">AGUILERA RUDOLPH PAULA FERNAND</t>
           </r>
         </is>
       </c>
       <c r="J120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Scotiabank Sudamericano</t>
           </r>
         </is>
       </c>
       <c r="K120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15540057239</t>
+            <t xml:space="preserve">960078515</t>
           </r>
         </is>
       </c>
       <c r="L120" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">179.760</t>
+            <t xml:space="preserve">155.188</t>
           </r>
         </is>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="A121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">295670355168</t>
+            <t xml:space="preserve">240806022919</t>
           </r>
         </is>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="C121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="F121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10241,35 +10241,35 @@
       <c r="H121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17720528-1</t>
+            <t xml:space="preserve">17524580-4</t>
           </r>
         </is>
       </c>
       <c r="I121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BELEN ELISA SILVA GALLARDO</t>
+            <t xml:space="preserve">ESPINOZA PAVEZ JORGE ANDRES</t>
           </r>
         </is>
       </c>
       <c r="J121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Scotiabank Sudamericano</t>
           </r>
         </is>
       </c>
       <c r="K121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19991617412</t>
+            <t xml:space="preserve">975308057</t>
           </r>
         </is>
       </c>
       <c r="L121" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30.000</t>
+            <t xml:space="preserve">277.763</t>
           </r>
         </is>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="A122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">355842469910</t>
+            <t xml:space="preserve">240806123345</t>
           </r>
         </is>
       </c>
@@ -10291,7 +10291,7 @@
       <c r="C122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="F122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10326,35 +10326,35 @@
       <c r="H122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18326857-0</t>
+            <t xml:space="preserve">12468726-8</t>
           </r>
         </is>
       </c>
       <c r="I122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Jos Rojas</t>
+            <t xml:space="preserve">MENESES RAMIREZ JUANA IVONNE</t>
           </r>
         </is>
       </c>
       <c r="J122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Copec Pay</t>
+            <t xml:space="preserve">Scotiabank Sudamericano</t>
           </r>
         </is>
       </c>
       <c r="K122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11832685701</t>
+            <t xml:space="preserve">974155966</t>
           </r>
         </is>
       </c>
       <c r="L122" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100.000</t>
+            <t xml:space="preserve">338.394</t>
           </r>
         </is>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="A123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">393031710498</t>
+            <t xml:space="preserve">242155910081</t>
           </r>
         </is>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="C123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="F123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10411,35 +10411,35 @@
       <c r="H123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18967168-7</t>
+            <t xml:space="preserve">77572396-3</t>
           </r>
         </is>
       </c>
       <c r="I123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARCELO EDUARDO PARRA Munoz</t>
+            <t xml:space="preserve">TRANSPORTES CORDOVA SPA</t>
           </r>
         </is>
       </c>
       <c r="J123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Itau Corpbanca</t>
           </r>
         </is>
       </c>
       <c r="K123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19992450324</t>
+            <t xml:space="preserve">390001000223952075</t>
           </r>
         </is>
       </c>
       <c r="L123" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">160.562</t>
+            <t xml:space="preserve">1.057.797</t>
           </r>
         </is>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="A124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">436798653511</t>
+            <t xml:space="preserve">242156042001</t>
           </r>
         </is>
       </c>
@@ -10461,7 +10461,7 @@
       <c r="C124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">02/08/2024</t>
           </r>
         </is>
       </c>
@@ -10496,35 +10496,35 @@
       <c r="H124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17937032-8</t>
+            <t xml:space="preserve">7174639-9</t>
           </r>
         </is>
       </c>
       <c r="I124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LISSETTE JOSELYN ROJAS PAEZ</t>
+            <t xml:space="preserve">RICARDO MACULET CLASSING</t>
           </r>
         </is>
       </c>
       <c r="J124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Itau Corpbanca</t>
           </r>
         </is>
       </c>
       <c r="K124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11500117030</t>
+            <t xml:space="preserve">390001000223159279</t>
           </r>
         </is>
       </c>
       <c r="L124" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53.545</t>
+            <t xml:space="preserve">314.268</t>
           </r>
         </is>
       </c>
@@ -10538,7 +10538,7 @@
       <c r="A125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">456754253768</t>
+            <t xml:space="preserve">242193612331</t>
           </r>
         </is>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="C125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -10567,7 +10567,7 @@
       <c r="F125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10581,35 +10581,35 @@
       <c r="H125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11935301-7</t>
+            <t xml:space="preserve">14126691-8</t>
           </r>
         </is>
       </c>
       <c r="I125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PILAR ALEJANDRA GONZALEZ OLIVA</t>
+            <t xml:space="preserve">JOHANA MARGARITA ARANDA VALDES</t>
           </r>
         </is>
       </c>
       <c r="J125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Itau Corpbanca</t>
           </r>
         </is>
       </c>
       <c r="K125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13700114846</t>
+            <t xml:space="preserve">390001000209956208</t>
           </r>
         </is>
       </c>
       <c r="L125" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">300.000</t>
+            <t xml:space="preserve">463.813</t>
           </r>
         </is>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="A126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">649415077686</t>
+            <t xml:space="preserve">242205143701</t>
           </r>
         </is>
       </c>
@@ -10631,7 +10631,7 @@
       <c r="C126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -10666,35 +10666,35 @@
       <c r="H126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19228099-0</t>
+            <t xml:space="preserve">77552402-2</t>
           </r>
         </is>
       </c>
       <c r="I126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BRYAN ANDRES HENRIQUEZ ORTEGA</t>
+            <t xml:space="preserve">METALWIRE SPA</t>
           </r>
         </is>
       </c>
       <c r="J126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Itau Corpbanca</t>
           </r>
         </is>
       </c>
       <c r="K126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50013246551</t>
+            <t xml:space="preserve">390001000223819525</t>
           </r>
         </is>
       </c>
       <c r="L126" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">175.484</t>
+            <t xml:space="preserve">1.487.318</t>
           </r>
         </is>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="A127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">726781692188</t>
+            <t xml:space="preserve">247843678666</t>
           </r>
         </is>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="C127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="F127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10751,14 +10751,14 @@
       <c r="H127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25399007-4</t>
+            <t xml:space="preserve">10866099-6</t>
           </r>
         </is>
       </c>
       <c r="I127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JHONN ANDRIX MARQUINA HUERTA</t>
+            <t xml:space="preserve">MARYAM RAZAKH FAROOQUI</t>
           </r>
         </is>
       </c>
@@ -10772,14 +10772,14 @@
       <c r="K127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19991469611</t>
+            <t xml:space="preserve">15060039240</t>
           </r>
         </is>
       </c>
       <c r="L127" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">128.200</t>
+            <t xml:space="preserve">235.758</t>
           </r>
         </is>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="A128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">731319629549</t>
+            <t xml:space="preserve">287831232820</t>
           </r>
         </is>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="C128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="F128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -10836,14 +10836,14 @@
       <c r="H128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16041979-2</t>
+            <t xml:space="preserve">25968847-7</t>
           </r>
         </is>
       </c>
       <c r="I128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CRISTIAN GUSTAVO HERRERA SAEZ</t>
+            <t xml:space="preserve">MISAEL ANGEL LIZARDO MARRIAGA</t>
           </r>
         </is>
       </c>
@@ -10857,14 +10857,14 @@
       <c r="K128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">57500046488</t>
+            <t xml:space="preserve">15540057239</t>
           </r>
         </is>
       </c>
       <c r="L128" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">107.084</t>
+            <t xml:space="preserve">179.760</t>
           </r>
         </is>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="A129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">745639469381</t>
+            <t xml:space="preserve">295670355168</t>
           </r>
         </is>
       </c>
@@ -10886,7 +10886,7 @@
       <c r="C129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -10907,7 +10907,7 @@
       <c r="F129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -10921,14 +10921,14 @@
       <c r="H129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12506952-5</t>
+            <t xml:space="preserve">17720528-1</t>
           </r>
         </is>
       </c>
       <c r="I129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MANUEL ALEJANDRO LAGOS ARAYA</t>
+            <t xml:space="preserve">BELEN ELISA SILVA GALLARDO</t>
           </r>
         </is>
       </c>
@@ -10942,14 +10942,14 @@
       <c r="K129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10160508612</t>
+            <t xml:space="preserve">19991617412</t>
           </r>
         </is>
       </c>
       <c r="L129" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">298.005</t>
+            <t xml:space="preserve">30.000</t>
           </r>
         </is>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="A130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">811810471199</t>
+            <t xml:space="preserve">355842469910</t>
           </r>
         </is>
       </c>
@@ -10971,7 +10971,7 @@
       <c r="C130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">01/08/2024</t>
           </r>
         </is>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="F130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
@@ -11006,35 +11006,35 @@
       <c r="H130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18032446-1</t>
+            <t xml:space="preserve">18326857-0</t>
           </r>
         </is>
       </c>
       <c r="I130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PAMELA MORIN PIZARRO VALENZUEL</t>
+            <t xml:space="preserve">Jos Rojas</t>
           </r>
         </is>
       </c>
       <c r="J130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Banco Falabella</t>
+            <t xml:space="preserve">Copec Pay</t>
           </r>
         </is>
       </c>
       <c r="K130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50014027363</t>
+            <t xml:space="preserve">11832685701</t>
           </r>
         </is>
       </c>
       <c r="L130" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">117.692</t>
+            <t xml:space="preserve">100.000</t>
           </r>
         </is>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="A131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">964244398528</t>
+            <t xml:space="preserve">393031710498</t>
           </r>
         </is>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="C131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="F131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
@@ -11091,14 +11091,14 @@
       <c r="H131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17121536-6</t>
+            <t xml:space="preserve">18967168-7</t>
           </r>
         </is>
       </c>
       <c r="I131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ALAN DANILO ARAYA HERNANDEZ</t>
+            <t xml:space="preserve">MARCELO EDUARDO PARRA Munoz</t>
           </r>
         </is>
       </c>
@@ -11112,14 +11112,14 @@
       <c r="K131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50012634292</t>
+            <t xml:space="preserve">19992450324</t>
           </r>
         </is>
       </c>
       <c r="L131" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">432.434</t>
+            <t xml:space="preserve">160.562</t>
           </r>
         </is>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="A132" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">975865955394</t>
+            <t xml:space="preserve">436798653511</t>
           </r>
         </is>
       </c>
@@ -11176,14 +11176,14 @@
       <c r="H132" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10953117-0</t>
+            <t xml:space="preserve">17937032-8</t>
           </r>
         </is>
       </c>
       <c r="I132" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BRISA SOLANGE ARAYA CANIO</t>
+            <t xml:space="preserve">LISSETTE JOSELYN ROJAS PAEZ</t>
           </r>
         </is>
       </c>
@@ -11197,14 +11197,14 @@
       <c r="K132" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10120072120</t>
+            <t xml:space="preserve">11500117030</t>
           </r>
         </is>
       </c>
       <c r="L132" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">72.856</t>
+            <t xml:space="preserve">53.545</t>
           </r>
         </is>
       </c>
@@ -11218,7 +11218,7 @@
       <c r="A133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">873846214</t>
+            <t xml:space="preserve">456754253768</t>
           </r>
         </is>
       </c>
@@ -11247,49 +11247,49 @@
       <c r="F133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
       <c r="G133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15465621-9</t>
+            <t xml:space="preserve">11935301-7</t>
           </r>
         </is>
       </c>
       <c r="I133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">RICARDO ANDRES CONTRERAS MILLAR</t>
+            <t xml:space="preserve">PILAR ALEJANDRA GONZALEZ OLIVA</t>
           </r>
         </is>
       </c>
       <c r="J133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">73497193    </t>
+            <t xml:space="preserve">13700114846</t>
           </r>
         </is>
       </c>
       <c r="L133" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">161.303</t>
+            <t xml:space="preserve">300.000</t>
           </r>
         </is>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="A134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">873835309</t>
+            <t xml:space="preserve">649415077686</t>
           </r>
         </is>
       </c>
@@ -11339,42 +11339,42 @@
       <c r="G134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18978311-6</t>
+            <t xml:space="preserve">19228099-0</t>
           </r>
         </is>
       </c>
       <c r="I134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JHOAN MANUEL SAA REYES</t>
+            <t xml:space="preserve">BRYAN ANDRES HENRIQUEZ ORTEGA</t>
           </r>
         </is>
       </c>
       <c r="J134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">79347339    </t>
+            <t xml:space="preserve">50013246551</t>
           </r>
         </is>
       </c>
       <c r="L134" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">350.366</t>
+            <t xml:space="preserve">175.484</t>
           </r>
         </is>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="A135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">874214804</t>
+            <t xml:space="preserve">726781692188</t>
           </r>
         </is>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="C135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/08/2024</t>
+            <t xml:space="preserve">05/08/2024</t>
           </r>
         </is>
       </c>
@@ -11417,49 +11417,49 @@
       <c r="F135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682381</t>
           </r>
         </is>
       </c>
       <c r="G135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11287522-0</t>
+            <t xml:space="preserve">25399007-4</t>
           </r>
         </is>
       </c>
       <c r="I135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MYRIAM DE LOURDES BALVOA YELICH</t>
+            <t xml:space="preserve">JHONN ANDRIX MARQUINA HUERTA</t>
           </r>
         </is>
       </c>
       <c r="J135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31631797    </t>
+            <t xml:space="preserve">19991469611</t>
           </r>
         </is>
       </c>
       <c r="L135" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">77.659</t>
+            <t xml:space="preserve">128.200</t>
           </r>
         </is>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="A136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">874225599</t>
+            <t xml:space="preserve">731319629549</t>
           </r>
         </is>
       </c>
@@ -11502,49 +11502,49 @@
       <c r="F136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29743125</t>
+            <t xml:space="preserve">61682390</t>
           </r>
         </is>
       </c>
       <c r="G136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9955565-3</t>
+            <t xml:space="preserve">16041979-2</t>
           </r>
         </is>
       </c>
       <c r="I136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DANIEL ALBERTO DEL C CANTERO MIRANDA</t>
+            <t xml:space="preserve">CRISTIAN GUSTAVO HERRERA SAEZ</t>
           </r>
         </is>
       </c>
       <c r="J136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">56412096    </t>
+            <t xml:space="preserve">57500046488</t>
           </r>
         </is>
       </c>
       <c r="L136" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">158.814</t>
+            <t xml:space="preserve">107.084</t>
           </r>
         </is>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="A137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">871621760</t>
+            <t xml:space="preserve">745639469381</t>
           </r>
         </is>
       </c>
@@ -11566,7 +11566,7 @@
       <c r="C137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">03/08/2024</t>
           </r>
         </is>
       </c>
@@ -11587,49 +11587,49 @@
       <c r="F137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
       <c r="G137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18898089-9</t>
+            <t xml:space="preserve">12506952-5</t>
           </r>
         </is>
       </c>
       <c r="I137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PIERO ALEXANDER MOSCOSO ARAYA</t>
+            <t xml:space="preserve">MANUEL ALEJANDRO LAGOS ARAYA</t>
           </r>
         </is>
       </c>
       <c r="J137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">89209249    </t>
+            <t xml:space="preserve">10160508612</t>
           </r>
         </is>
       </c>
       <c r="L137" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">54.000</t>
+            <t xml:space="preserve">298.005</t>
           </r>
         </is>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="A138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">871810052</t>
+            <t xml:space="preserve">768619254036</t>
           </r>
         </is>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="C138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/08/2024</t>
+            <t xml:space="preserve">07/08/2024</t>
           </r>
         </is>
       </c>
@@ -11672,49 +11672,49 @@
       <c r="F138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
       <c r="G138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18736742-5</t>
+            <t xml:space="preserve">17010640-7</t>
           </r>
         </is>
       </c>
       <c r="I138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">IAN JORGE VILLAGRAN SEPULVEDA</t>
+            <t xml:space="preserve">CAROLINA ANDREA ARELLANO PEDRE</t>
           </r>
         </is>
       </c>
       <c r="J138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">47334185    </t>
+            <t xml:space="preserve">19990104333</t>
           </r>
         </is>
       </c>
       <c r="L138" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">250.000</t>
+            <t xml:space="preserve">295.714</t>
           </r>
         </is>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="A139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">873762603</t>
+            <t xml:space="preserve">811810471199</t>
           </r>
         </is>
       </c>
@@ -11736,7 +11736,7 @@
       <c r="C139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05/08/2024</t>
+            <t xml:space="preserve">06/08/2024</t>
           </r>
         </is>
       </c>
@@ -11757,49 +11757,49 @@
       <c r="F139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
       <c r="G139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18254961-4</t>
+            <t xml:space="preserve">18032446-1</t>
           </r>
         </is>
       </c>
       <c r="I139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JENNY NICOLE LEYTON GALLEGUILLOS</t>
+            <t xml:space="preserve">PAMELA MORIN PIZARRO VALENZUEL</t>
           </r>
         </is>
       </c>
       <c r="J139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61278220    </t>
+            <t xml:space="preserve">50014027363</t>
           </r>
         </is>
       </c>
       <c r="L139" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">253.275</t>
+            <t xml:space="preserve">117.692</t>
           </r>
         </is>
       </c>
@@ -11813,7 +11813,7 @@
       <c r="A140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">873569070</t>
+            <t xml:space="preserve">964244398528</t>
           </r>
         </is>
       </c>
@@ -11842,49 +11842,49 @@
       <c r="F140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682420</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
       <c r="G140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14538321-8</t>
+            <t xml:space="preserve">17121536-6</t>
           </r>
         </is>
       </c>
       <c r="I140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">FABIOLA DEL CARMEN JIMENEZ SOLORZA</t>
+            <t xml:space="preserve">ALAN DANILO ARAYA HERNANDEZ</t>
           </r>
         </is>
       </c>
       <c r="J140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61853089    </t>
+            <t xml:space="preserve">50012634292</t>
           </r>
         </is>
       </c>
       <c r="L140" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14.955</t>
+            <t xml:space="preserve">432.434</t>
           </r>
         </is>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="A141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">75806047</t>
+            <t xml:space="preserve">975865955394</t>
           </r>
         </is>
       </c>
@@ -11934,42 +11934,42 @@
       <c r="G141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TEF</t>
+            <t xml:space="preserve">TEF Otros Bancos</t>
           </r>
         </is>
       </c>
       <c r="H141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">77206260-5</t>
+            <t xml:space="preserve">10953117-0</t>
           </r>
         </is>
       </c>
       <c r="I141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVER LIMITADA</t>
+            <t xml:space="preserve">BRISA SOLANGE ARAYA CANIO</t>
           </r>
         </is>
       </c>
       <c r="J141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BCI</t>
+            <t xml:space="preserve">Banco Falabella</t>
           </r>
         </is>
       </c>
       <c r="K141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682381</t>
+            <t xml:space="preserve">10120072120</t>
           </r>
         </is>
       </c>
       <c r="L141" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">297.500</t>
+            <t xml:space="preserve">72.856</t>
           </r>
         </is>
       </c>
@@ -11983,7 +11983,7 @@
       <c r="A142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">75652367</t>
+            <t xml:space="preserve">873846214</t>
           </r>
         </is>
       </c>
@@ -12012,7 +12012,7 @@
       <c r="F142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">61682390</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
@@ -12026,14 +12026,14 @@
       <c r="H142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">76766868-6</t>
+            <t xml:space="preserve">15465621-9</t>
           </r>
         </is>
       </c>
       <c r="I142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">PAVIMENTOS EL ROBLE SPA</t>
+            <t xml:space="preserve">RICARDO ANDRES CONTRERAS MILLAR</t>
           </r>
         </is>
       </c>
@@ -12047,14 +12047,14 @@
       <c r="K142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">89268539</t>
+            <t xml:space="preserve">73497193    </t>
           </r>
         </is>
       </c>
       <c r="L142" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2.000.000</t>
+            <t xml:space="preserve">161.303</t>
           </r>
         </is>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="A143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20510772</t>
+            <t xml:space="preserve">873835309</t>
           </r>
         </is>
       </c>
@@ -12097,43 +12097,49 @@
       <c r="F143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13336959</t>
+            <t xml:space="preserve">29743125</t>
           </r>
         </is>
       </c>
       <c r="G143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">LBTR-Otros Bancos</t>
+            <t xml:space="preserve">TEF</t>
           </r>
         </is>
       </c>
       <c r="H143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">96547710-1</t>
+            <t xml:space="preserve">18978311-6</t>
           </r>
         </is>
       </c>
       <c r="I143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CERVECERIA CHILE S A</t>
+            <t xml:space="preserve">JHOAN MANUEL SAA REYES</t>
           </r>
         </is>
       </c>
       <c r="J143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BANCO SANTANDER CHILE</t>
-          </r>
-        </is>
-      </c>
-      <c r="K143" s="5" t="inlineStr"/>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K143" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">79347339    </t>
+          </r>
+        </is>
+      </c>
       <c r="L143" s="5" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13.965</t>
+            <t xml:space="preserve">350.366</t>
           </r>
         </is>
       </c>
@@ -12142,6 +12148,935 @@
       <c r="O143" s="5" t="inlineStr"/>
       <c r="P143" s="3" t="inlineStr"/>
       <c r="Q143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144" customHeight="1" ht="15">
+      <c r="A144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">874214804</t>
+          </r>
+        </is>
+      </c>
+      <c r="B144" s="5" t="inlineStr"/>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29743125</t>
+          </r>
+        </is>
+      </c>
+      <c r="G144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11287522-0</t>
+          </r>
+        </is>
+      </c>
+      <c r="I144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MYRIAM DE LOURDES BALVOA YELICH</t>
+          </r>
+        </is>
+      </c>
+      <c r="J144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">31631797    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L144" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77.659</t>
+          </r>
+        </is>
+      </c>
+      <c r="M144" s="5" t="inlineStr"/>
+      <c r="N144" s="5" t="inlineStr"/>
+      <c r="O144" s="5" t="inlineStr"/>
+      <c r="P144" s="3" t="inlineStr"/>
+      <c r="Q144" s="3" t="inlineStr"/>
+    </row>
+    <row r="145" customHeight="1" ht="15">
+      <c r="A145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">874225599</t>
+          </r>
+        </is>
+      </c>
+      <c r="B145" s="5" t="inlineStr"/>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29743125</t>
+          </r>
+        </is>
+      </c>
+      <c r="G145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9955565-3</t>
+          </r>
+        </is>
+      </c>
+      <c r="I145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DANIEL ALBERTO DEL C CANTERO MIRANDA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">56412096    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L145" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">158.814</t>
+          </r>
+        </is>
+      </c>
+      <c r="M145" s="5" t="inlineStr"/>
+      <c r="N145" s="5" t="inlineStr"/>
+      <c r="O145" s="5" t="inlineStr"/>
+      <c r="P145" s="3" t="inlineStr"/>
+      <c r="Q145" s="3" t="inlineStr"/>
+    </row>
+    <row r="146" customHeight="1" ht="15">
+      <c r="A146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">871621760</t>
+          </r>
+        </is>
+      </c>
+      <c r="B146" s="5" t="inlineStr"/>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">01/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682381</t>
+          </r>
+        </is>
+      </c>
+      <c r="G146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18898089-9</t>
+          </r>
+        </is>
+      </c>
+      <c r="I146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">PIERO ALEXANDER MOSCOSO ARAYA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">89209249    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L146" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">54.000</t>
+          </r>
+        </is>
+      </c>
+      <c r="M146" s="5" t="inlineStr"/>
+      <c r="N146" s="5" t="inlineStr"/>
+      <c r="O146" s="5" t="inlineStr"/>
+      <c r="P146" s="3" t="inlineStr"/>
+      <c r="Q146" s="3" t="inlineStr"/>
+    </row>
+    <row r="147" customHeight="1" ht="15">
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">871810052</t>
+          </r>
+        </is>
+      </c>
+      <c r="B147" s="5" t="inlineStr"/>
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">01/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682381</t>
+          </r>
+        </is>
+      </c>
+      <c r="G147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18736742-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="I147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">IAN JORGE VILLAGRAN SEPULVEDA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">47334185    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L147" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">250.000</t>
+          </r>
+        </is>
+      </c>
+      <c r="M147" s="5" t="inlineStr"/>
+      <c r="N147" s="5" t="inlineStr"/>
+      <c r="O147" s="5" t="inlineStr"/>
+      <c r="P147" s="3" t="inlineStr"/>
+      <c r="Q147" s="3" t="inlineStr"/>
+    </row>
+    <row r="148" customHeight="1" ht="15">
+      <c r="A148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">873762603</t>
+          </r>
+        </is>
+      </c>
+      <c r="B148" s="5" t="inlineStr"/>
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682390</t>
+          </r>
+        </is>
+      </c>
+      <c r="G148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18254961-4</t>
+          </r>
+        </is>
+      </c>
+      <c r="I148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">JENNY NICOLE LEYTON GALLEGUILLOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="J148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61278220    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L148" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">253.275</t>
+          </r>
+        </is>
+      </c>
+      <c r="M148" s="5" t="inlineStr"/>
+      <c r="N148" s="5" t="inlineStr"/>
+      <c r="O148" s="5" t="inlineStr"/>
+      <c r="P148" s="3" t="inlineStr"/>
+      <c r="Q148" s="3" t="inlineStr"/>
+    </row>
+    <row r="149" customHeight="1" ht="15">
+      <c r="A149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">873569070</t>
+          </r>
+        </is>
+      </c>
+      <c r="B149" s="5" t="inlineStr"/>
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682420</t>
+          </r>
+        </is>
+      </c>
+      <c r="G149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">14538321-8</t>
+          </r>
+        </is>
+      </c>
+      <c r="I149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">FABIOLA DEL CARMEN JIMENEZ SOLORZA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61853089    </t>
+          </r>
+        </is>
+      </c>
+      <c r="L149" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">14.955</t>
+          </r>
+        </is>
+      </c>
+      <c r="M149" s="5" t="inlineStr"/>
+      <c r="N149" s="5" t="inlineStr"/>
+      <c r="O149" s="5" t="inlineStr"/>
+      <c r="P149" s="3" t="inlineStr"/>
+      <c r="Q149" s="3" t="inlineStr"/>
+    </row>
+    <row r="150" customHeight="1" ht="15">
+      <c r="A150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">75806047</t>
+          </r>
+        </is>
+      </c>
+      <c r="B150" s="5" t="inlineStr"/>
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29743125</t>
+          </r>
+        </is>
+      </c>
+      <c r="G150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="I150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVER LIMITADA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682381</t>
+          </r>
+        </is>
+      </c>
+      <c r="L150" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">297.500</t>
+          </r>
+        </is>
+      </c>
+      <c r="M150" s="5" t="inlineStr"/>
+      <c r="N150" s="5" t="inlineStr"/>
+      <c r="O150" s="5" t="inlineStr"/>
+      <c r="P150" s="3" t="inlineStr"/>
+      <c r="Q150" s="3" t="inlineStr"/>
+    </row>
+    <row r="151" customHeight="1" ht="15">
+      <c r="A151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">75879028</t>
+          </r>
+        </is>
+      </c>
+      <c r="B151" s="5" t="inlineStr"/>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29743125</t>
+          </r>
+        </is>
+      </c>
+      <c r="G151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="I151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVER LIMITADA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682381</t>
+          </r>
+        </is>
+      </c>
+      <c r="L151" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">138.350</t>
+          </r>
+        </is>
+      </c>
+      <c r="M151" s="5" t="inlineStr"/>
+      <c r="N151" s="5" t="inlineStr"/>
+      <c r="O151" s="5" t="inlineStr"/>
+      <c r="P151" s="3" t="inlineStr"/>
+      <c r="Q151" s="3" t="inlineStr"/>
+    </row>
+    <row r="152" customHeight="1" ht="15">
+      <c r="A152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">75880061</t>
+          </r>
+        </is>
+      </c>
+      <c r="B152" s="5" t="inlineStr"/>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29743125</t>
+          </r>
+        </is>
+      </c>
+      <c r="G152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="I152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVER LIMITADA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">13332473</t>
+          </r>
+        </is>
+      </c>
+      <c r="L152" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10</t>
+          </r>
+        </is>
+      </c>
+      <c r="M152" s="5" t="inlineStr"/>
+      <c r="N152" s="5" t="inlineStr"/>
+      <c r="O152" s="5" t="inlineStr"/>
+      <c r="P152" s="3" t="inlineStr"/>
+      <c r="Q152" s="3" t="inlineStr"/>
+    </row>
+    <row r="153" customHeight="1" ht="15">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">75652367</t>
+          </r>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr"/>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">61682390</t>
+          </r>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">TEF</t>
+          </r>
+        </is>
+      </c>
+      <c r="H153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">76766868-6</t>
+          </r>
+        </is>
+      </c>
+      <c r="I153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">PAVIMENTOS EL ROBLE SPA</t>
+          </r>
+        </is>
+      </c>
+      <c r="J153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BCI</t>
+          </r>
+        </is>
+      </c>
+      <c r="K153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">89268539</t>
+          </r>
+        </is>
+      </c>
+      <c r="L153" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2.000.000</t>
+          </r>
+        </is>
+      </c>
+      <c r="M153" s="5" t="inlineStr"/>
+      <c r="N153" s="5" t="inlineStr"/>
+      <c r="O153" s="5" t="inlineStr"/>
+      <c r="P153" s="3" t="inlineStr"/>
+      <c r="Q153" s="3" t="inlineStr"/>
+    </row>
+    <row r="154" customHeight="1" ht="15">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20510772</t>
+          </r>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr"/>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/08/2024</t>
+          </r>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">77206260-5</t>
+          </r>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOCIEDAD COMERCIAL RECOVE R LIMITADA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">13336959</t>
+          </r>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">LBTR-Otros Bancos</t>
+          </r>
+        </is>
+      </c>
+      <c r="H154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">96547710-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="I154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CERVECERIA CHILE S A</t>
+          </r>
+        </is>
+      </c>
+      <c r="J154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BANCO SANTANDER CHILE</t>
+          </r>
+        </is>
+      </c>
+      <c r="K154" s="5" t="inlineStr"/>
+      <c r="L154" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">13.965</t>
+          </r>
+        </is>
+      </c>
+      <c r="M154" s="5" t="inlineStr"/>
+      <c r="N154" s="5" t="inlineStr"/>
+      <c r="O154" s="5" t="inlineStr"/>
+      <c r="P154" s="3" t="inlineStr"/>
+      <c r="Q154" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -12288,6 +13223,17 @@
     <mergeCell ref="A141:B141"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="landscape"/>

--- a/TransferenciasRecibidas.xlsx
+++ b/TransferenciasRecibidas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63533418-EFEB-471F-AC89-1956DA25B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1531D6-7A97-4A82-A5BD-78AAFBD104C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="24220" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transferencias Recibidas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="758">
   <si>
     <t>Grupo</t>
   </si>
@@ -1206,9 +1206,6 @@
   </si>
   <si>
     <t>061449096630</t>
-  </si>
-  <si>
-    <t>780</t>
   </si>
   <si>
     <t>061538043597</t>
@@ -2426,6 +2423,13 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2434,13 +2438,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2809,8 +2806,8 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:B90"/>
+    <sheetView tabSelected="1" topLeftCell="J59" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2834,44 +2831,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
@@ -2880,21 +2877,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -2903,69 +2900,69 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="34" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3009,10 +3006,10 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3054,10 +3051,10 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
@@ -3099,10 +3096,10 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
@@ -3144,10 +3141,10 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
@@ -3189,10 +3186,10 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
@@ -3234,10 +3231,10 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
@@ -3279,10 +3276,10 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
@@ -3320,10 +3317,10 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
@@ -3361,10 +3358,10 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -3402,10 +3399,10 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
@@ -3443,10 +3440,10 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
@@ -3484,10 +3481,10 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3525,10 +3522,10 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3566,10 +3563,10 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3607,10 +3604,10 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
@@ -3648,10 +3645,10 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
@@ -3689,10 +3686,10 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
@@ -3730,10 +3727,10 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>130</v>
       </c>
@@ -3771,10 +3768,10 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
         <v>130</v>
       </c>
@@ -3812,10 +3809,10 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
@@ -3853,10 +3850,10 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
@@ -3894,10 +3891,10 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
@@ -3935,10 +3932,10 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
@@ -3976,10 +3973,10 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
@@ -4017,10 +4014,10 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
@@ -4058,10 +4055,10 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
@@ -4099,10 +4096,10 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
@@ -4140,10 +4137,10 @@
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
@@ -4181,10 +4178,10 @@
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
@@ -4222,10 +4219,10 @@
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
         <v>58</v>
       </c>
@@ -4263,10 +4260,10 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
@@ -4304,10 +4301,10 @@
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
         <v>58</v>
       </c>
@@ -4345,10 +4342,10 @@
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="3" t="s">
         <v>58</v>
       </c>
@@ -4386,10 +4383,10 @@
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
         <v>58</v>
       </c>
@@ -4427,10 +4424,10 @@
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
@@ -4468,10 +4465,10 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
         <v>35</v>
       </c>
@@ -4509,10 +4506,10 @@
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4550,10 +4547,10 @@
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
@@ -4591,10 +4588,10 @@
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
         <v>44</v>
       </c>
@@ -4632,10 +4629,10 @@
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
@@ -4673,10 +4670,10 @@
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
         <v>130</v>
       </c>
@@ -4714,10 +4711,10 @@
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
         <v>130</v>
       </c>
@@ -4755,10 +4752,10 @@
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
         <v>130</v>
       </c>
@@ -4796,10 +4793,10 @@
       <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
         <v>130</v>
       </c>
@@ -4837,10 +4834,10 @@
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
         <v>268</v>
       </c>
@@ -4878,10 +4875,10 @@
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
         <v>35</v>
       </c>
@@ -4919,10 +4916,10 @@
       <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
@@ -4960,10 +4957,10 @@
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
         <v>35</v>
       </c>
@@ -5001,10 +4998,10 @@
       <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
@@ -5042,10 +5039,10 @@
       <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
@@ -5083,10 +5080,10 @@
       <c r="Q57" s="2"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
         <v>35</v>
       </c>
@@ -5124,10 +5121,10 @@
       <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
         <v>35</v>
       </c>
@@ -5165,10 +5162,10 @@
       <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
         <v>35</v>
       </c>
@@ -5206,10 +5203,10 @@
       <c r="Q60" s="2"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
         <v>35</v>
       </c>
@@ -5247,10 +5244,10 @@
       <c r="Q61" s="2"/>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
         <v>35</v>
       </c>
@@ -5288,10 +5285,10 @@
       <c r="Q62" s="2"/>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="3" t="s">
         <v>35</v>
       </c>
@@ -5329,10 +5326,10 @@
       <c r="Q63" s="2"/>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
         <v>35</v>
       </c>
@@ -5370,10 +5367,10 @@
       <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
         <v>35</v>
       </c>
@@ -5411,10 +5408,10 @@
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="3" t="s">
         <v>35</v>
       </c>
@@ -5452,10 +5449,10 @@
       <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="3" t="s">
         <v>35</v>
       </c>
@@ -5493,10 +5490,10 @@
       <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
@@ -5534,10 +5531,10 @@
       <c r="Q68" s="2"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="3" t="s">
         <v>22</v>
       </c>
@@ -5575,10 +5572,10 @@
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
@@ -5616,10 +5613,10 @@
       <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="3" t="s">
         <v>22</v>
       </c>
@@ -5657,10 +5654,10 @@
       <c r="Q71" s="2"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
@@ -5698,10 +5695,10 @@
       <c r="Q72" s="2"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
@@ -5739,10 +5736,10 @@
       <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="3" t="s">
         <v>22</v>
       </c>
@@ -5780,10 +5777,10 @@
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
         <v>22</v>
       </c>
@@ -5821,10 +5818,10 @@
       <c r="Q75" s="2"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
         <v>22</v>
       </c>
@@ -5862,10 +5859,10 @@
       <c r="Q76" s="2"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="3" t="s">
         <v>22</v>
       </c>
@@ -5903,10 +5900,10 @@
       <c r="Q77" s="2"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="3" t="s">
         <v>22</v>
       </c>
@@ -5934,8 +5931,8 @@
       <c r="K78" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>396</v>
+      <c r="L78" s="3">
+        <v>500</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -5944,10 +5941,10 @@
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B79" s="6"/>
+      <c r="A79" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="3" t="s">
         <v>22</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>311</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -5985,10 +5982,10 @@
       <c r="Q79" s="2"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B80" s="6"/>
+      <c r="A80" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="3" t="s">
         <v>22</v>
       </c>
@@ -6005,19 +6002,19 @@
         <v>66</v>
       </c>
       <c r="H80" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -6026,10 +6023,10 @@
       <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B81" s="6"/>
+      <c r="A81" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="3" t="s">
         <v>22</v>
       </c>
@@ -6046,16 +6043,16 @@
         <v>66</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>261</v>
@@ -6067,10 +6064,10 @@
       <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B82" s="6"/>
+      <c r="A82" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
         <v>22</v>
       </c>
@@ -6087,19 +6084,19 @@
         <v>66</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K82" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -6108,10 +6105,10 @@
       <c r="Q82" s="2"/>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="B83" s="6"/>
+      <c r="A83" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" s="8"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -6128,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K83" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -6149,10 +6146,10 @@
       <c r="Q83" s="2"/>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B84" s="6"/>
+      <c r="A84" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
         <v>22</v>
       </c>
@@ -6172,13 +6169,13 @@
         <v>81</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>261</v>
@@ -6190,10 +6187,10 @@
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B85" s="6"/>
+      <c r="A85" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
         <v>22</v>
       </c>
@@ -6210,19 +6207,19 @@
         <v>66</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K85" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -6231,10 +6228,10 @@
       <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B86" s="6"/>
+      <c r="A86" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
         <v>22</v>
       </c>
@@ -6251,19 +6248,19 @@
         <v>66</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K86" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -6272,10 +6269,10 @@
       <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="B87" s="6"/>
+      <c r="A87" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
         <v>22</v>
       </c>
@@ -6292,19 +6289,19 @@
         <v>66</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K87" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -6313,10 +6310,10 @@
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B88" s="6"/>
+      <c r="A88" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
         <v>64</v>
       </c>
@@ -6333,19 +6330,19 @@
         <v>66</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K88" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -6354,10 +6351,10 @@
       <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1">
-      <c r="A89" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B89" s="6"/>
+      <c r="A89" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
         <v>64</v>
       </c>
@@ -6374,19 +6371,19 @@
         <v>66</v>
       </c>
       <c r="H89" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K89" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -6395,10 +6392,10 @@
       <c r="Q89" s="2"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1">
-      <c r="A90" s="6">
+      <c r="A90" s="8">
         <v>763190794566</v>
       </c>
-      <c r="B90" s="6"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
@@ -6415,19 +6412,19 @@
         <v>66</v>
       </c>
       <c r="H90" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -6436,10 +6433,10 @@
       <c r="Q90" s="2"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B91" s="6"/>
+      <c r="A91" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" s="8"/>
       <c r="C91" s="3" t="s">
         <v>64</v>
       </c>
@@ -6456,19 +6453,19 @@
         <v>66</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K91" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -6477,10 +6474,10 @@
       <c r="Q91" s="2"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B92" s="6"/>
+      <c r="A92" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
         <v>64</v>
       </c>
@@ -6497,16 +6494,16 @@
         <v>66</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>261</v>
@@ -6518,10 +6515,10 @@
       <c r="Q92" s="2"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B93" s="6"/>
+      <c r="A93" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
         <v>58</v>
       </c>
@@ -6538,19 +6535,19 @@
         <v>66</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -6559,10 +6556,10 @@
       <c r="Q93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B94" s="6"/>
+      <c r="A94" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
         <v>58</v>
       </c>
@@ -6579,19 +6576,19 @@
         <v>66</v>
       </c>
       <c r="H94" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="J94" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -6600,10 +6597,10 @@
       <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B95" s="6"/>
+      <c r="A95" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
         <v>58</v>
       </c>
@@ -6614,25 +6611,25 @@
         <v>37</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -6641,10 +6638,10 @@
       <c r="Q95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B96" s="6"/>
+      <c r="A96" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="3" t="s">
         <v>130</v>
       </c>
@@ -6661,19 +6658,19 @@
         <v>66</v>
       </c>
       <c r="H96" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -6682,10 +6679,10 @@
       <c r="Q96" s="2"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B97" s="6"/>
+      <c r="A97" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" s="8"/>
       <c r="C97" s="3" t="s">
         <v>268</v>
       </c>
@@ -6702,19 +6699,19 @@
         <v>66</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="L97" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -6723,10 +6720,10 @@
       <c r="Q97" s="2"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B98" s="6"/>
+      <c r="A98" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B98" s="8"/>
       <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
@@ -6743,19 +6740,19 @@
         <v>66</v>
       </c>
       <c r="H98" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="L98" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -6764,10 +6761,10 @@
       <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1">
-      <c r="A99" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B99" s="6"/>
+      <c r="A99" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
         <v>35</v>
       </c>
@@ -6784,19 +6781,19 @@
         <v>66</v>
       </c>
       <c r="H99" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="L99" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -6805,10 +6802,10 @@
       <c r="Q99" s="2"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B100" s="6"/>
+      <c r="A100" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="3" t="s">
         <v>35</v>
       </c>
@@ -6825,19 +6822,19 @@
         <v>66</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -6846,10 +6843,10 @@
       <c r="Q100" s="2"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B101" s="6"/>
+      <c r="A101" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B101" s="8"/>
       <c r="C101" s="3" t="s">
         <v>35</v>
       </c>
@@ -6866,19 +6863,19 @@
         <v>66</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
@@ -6887,10 +6884,10 @@
       <c r="Q101" s="2"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B102" s="6"/>
+      <c r="A102" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
@@ -6907,19 +6904,19 @@
         <v>66</v>
       </c>
       <c r="H102" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J102" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
@@ -6928,10 +6925,10 @@
       <c r="Q102" s="2"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B103" s="6"/>
+      <c r="A103" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="3" t="s">
         <v>35</v>
       </c>
@@ -6948,19 +6945,19 @@
         <v>66</v>
       </c>
       <c r="H103" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="J103" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="L103" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
@@ -6969,10 +6966,10 @@
       <c r="Q103" s="2"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1">
-      <c r="A104" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B104" s="6"/>
+      <c r="A104" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B104" s="8"/>
       <c r="C104" s="3" t="s">
         <v>22</v>
       </c>
@@ -6989,19 +6986,19 @@
         <v>66</v>
       </c>
       <c r="H104" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="L104" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
@@ -7010,10 +7007,10 @@
       <c r="Q104" s="2"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="6"/>
+      <c r="A105" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
         <v>22</v>
       </c>
@@ -7030,19 +7027,19 @@
         <v>66</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="L105" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
@@ -7051,10 +7048,10 @@
       <c r="Q105" s="2"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B106" s="6"/>
+      <c r="A106" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B106" s="8"/>
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
@@ -7071,19 +7068,19 @@
         <v>66</v>
       </c>
       <c r="H106" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="L106" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
@@ -7092,10 +7089,10 @@
       <c r="Q106" s="2"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B107" s="6"/>
+      <c r="A107" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B107" s="8"/>
       <c r="C107" s="3" t="s">
         <v>22</v>
       </c>
@@ -7112,19 +7109,19 @@
         <v>66</v>
       </c>
       <c r="H107" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="J107" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="L107" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
@@ -7133,10 +7130,10 @@
       <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B108" s="6"/>
+      <c r="A108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B108" s="8"/>
       <c r="C108" s="3" t="s">
         <v>22</v>
       </c>
@@ -7153,19 +7150,19 @@
         <v>66</v>
       </c>
       <c r="H108" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K108" s="3" t="s">
+      <c r="L108" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
@@ -7174,10 +7171,10 @@
       <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B109" s="6"/>
+      <c r="A109" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B109" s="8"/>
       <c r="C109" s="3" t="s">
         <v>22</v>
       </c>
@@ -7194,19 +7191,19 @@
         <v>66</v>
       </c>
       <c r="H109" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I109" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="J109" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K109" s="3" t="s">
+      <c r="L109" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -7215,10 +7212,10 @@
       <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B110" s="6"/>
+      <c r="A110" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
         <v>22</v>
       </c>
@@ -7235,19 +7232,19 @@
         <v>66</v>
       </c>
       <c r="H110" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -7256,10 +7253,10 @@
       <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B111" s="6"/>
+      <c r="A111" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
         <v>22</v>
       </c>
@@ -7276,19 +7273,19 @@
         <v>66</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="L111" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -7297,10 +7294,10 @@
       <c r="Q111" s="2"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1">
-      <c r="A112" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B112" s="6"/>
+      <c r="A112" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B112" s="8"/>
       <c r="C112" s="3" t="s">
         <v>22</v>
       </c>
@@ -7317,19 +7314,19 @@
         <v>66</v>
       </c>
       <c r="H112" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="J112" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="J112" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K112" s="3" t="s">
+      <c r="L112" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -7338,10 +7335,10 @@
       <c r="Q112" s="2"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B113" s="6"/>
+      <c r="A113" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B113" s="8"/>
       <c r="C113" s="3" t="s">
         <v>64</v>
       </c>
@@ -7358,19 +7355,19 @@
         <v>66</v>
       </c>
       <c r="H113" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="L113" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -7379,10 +7376,10 @@
       <c r="Q113" s="2"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B114" s="6"/>
+      <c r="A114" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B114" s="8"/>
       <c r="C114" s="3" t="s">
         <v>64</v>
       </c>
@@ -7399,19 +7396,19 @@
         <v>66</v>
       </c>
       <c r="H114" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J114" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="L114" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -7420,10 +7417,10 @@
       <c r="Q114" s="2"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B115" s="6"/>
+      <c r="A115" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="3" t="s">
         <v>64</v>
       </c>
@@ -7440,19 +7437,19 @@
         <v>66</v>
       </c>
       <c r="H115" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I115" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="J115" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K115" s="3" t="s">
+      <c r="L115" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
@@ -7461,10 +7458,10 @@
       <c r="Q115" s="2"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B116" s="6"/>
+      <c r="A116" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B116" s="8"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -7481,19 +7478,19 @@
         <v>66</v>
       </c>
       <c r="H116" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K116" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="L116" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -7502,10 +7499,10 @@
       <c r="Q116" s="2"/>
     </row>
     <row r="117" spans="1:17" ht="15" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B117" s="6"/>
+      <c r="A117" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
         <v>35</v>
       </c>
@@ -7522,19 +7519,19 @@
         <v>66</v>
       </c>
       <c r="H117" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="L117" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -7543,10 +7540,10 @@
       <c r="Q117" s="2"/>
     </row>
     <row r="118" spans="1:17" ht="15" customHeight="1">
-      <c r="A118" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B118" s="6"/>
+      <c r="A118" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B118" s="8"/>
       <c r="C118" s="3" t="s">
         <v>130</v>
       </c>
@@ -7563,16 +7560,16 @@
         <v>66</v>
       </c>
       <c r="H118" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>261</v>
@@ -7584,10 +7581,10 @@
       <c r="Q118" s="2"/>
     </row>
     <row r="119" spans="1:17" ht="15" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="B119" s="6"/>
+      <c r="A119" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B119" s="8"/>
       <c r="C119" s="3" t="s">
         <v>35</v>
       </c>
@@ -7604,19 +7601,19 @@
         <v>66</v>
       </c>
       <c r="H119" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="I119" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="J119" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="L119" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -7625,10 +7622,10 @@
       <c r="Q119" s="2"/>
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B120" s="6"/>
+      <c r="A120" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
         <v>22</v>
       </c>
@@ -7645,19 +7642,19 @@
         <v>66</v>
       </c>
       <c r="H120" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="L120" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -7666,10 +7663,10 @@
       <c r="Q120" s="2"/>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B121" s="6"/>
+      <c r="A121" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
         <v>22</v>
       </c>
@@ -7686,19 +7683,19 @@
         <v>66</v>
       </c>
       <c r="H121" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="J121" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="L121" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
@@ -7707,10 +7704,10 @@
       <c r="Q121" s="2"/>
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1">
-      <c r="A122" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B122" s="6"/>
+      <c r="A122" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
         <v>22</v>
       </c>
@@ -7727,19 +7724,19 @@
         <v>66</v>
       </c>
       <c r="H122" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="J122" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="L122" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
@@ -7748,10 +7745,10 @@
       <c r="Q122" s="2"/>
     </row>
     <row r="123" spans="1:17" ht="15" customHeight="1">
-      <c r="A123" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B123" s="6"/>
+      <c r="A123" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
         <v>44</v>
       </c>
@@ -7768,19 +7765,19 @@
         <v>66</v>
       </c>
       <c r="H123" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -7789,10 +7786,10 @@
       <c r="Q123" s="2"/>
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1">
-      <c r="A124" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="B124" s="6"/>
+      <c r="A124" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
         <v>44</v>
       </c>
@@ -7809,19 +7806,19 @@
         <v>66</v>
       </c>
       <c r="H124" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="J124" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="K124" s="3" t="s">
+      <c r="L124" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
@@ -7830,10 +7827,10 @@
       <c r="Q124" s="2"/>
     </row>
     <row r="125" spans="1:17" ht="15" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="B125" s="6"/>
+      <c r="A125" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
         <v>22</v>
       </c>
@@ -7850,19 +7847,19 @@
         <v>66</v>
       </c>
       <c r="H125" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="K125" s="3" t="s">
+      <c r="L125" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -7871,10 +7868,10 @@
       <c r="Q125" s="2"/>
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B126" s="6"/>
+      <c r="A126" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
         <v>64</v>
       </c>
@@ -7891,19 +7888,19 @@
         <v>66</v>
       </c>
       <c r="H126" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="J126" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="K126" s="3" t="s">
+      <c r="L126" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
@@ -7912,10 +7909,10 @@
       <c r="Q126" s="2"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="B127" s="6"/>
+      <c r="A127" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
         <v>64</v>
       </c>
@@ -7932,19 +7929,19 @@
         <v>66</v>
       </c>
       <c r="H127" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K127" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L127" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
@@ -7953,10 +7950,10 @@
       <c r="Q127" s="2"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="B128" s="6"/>
+      <c r="A128" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
         <v>35</v>
       </c>
@@ -7973,19 +7970,19 @@
         <v>66</v>
       </c>
       <c r="H128" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K128" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="L128" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>638</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -7994,10 +7991,10 @@
       <c r="Q128" s="2"/>
     </row>
     <row r="129" spans="1:17" ht="15" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B129" s="6"/>
+      <c r="A129" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
         <v>35</v>
       </c>
@@ -8014,19 +8011,19 @@
         <v>66</v>
       </c>
       <c r="H129" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K129" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L129" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
@@ -8035,10 +8032,10 @@
       <c r="Q129" s="2"/>
     </row>
     <row r="130" spans="1:17" ht="15" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B130" s="6"/>
+      <c r="A130" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
         <v>58</v>
       </c>
@@ -8058,13 +8055,13 @@
         <v>207</v>
       </c>
       <c r="I130" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="J130" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>261</v>
@@ -8076,10 +8073,10 @@
       <c r="Q130" s="2"/>
     </row>
     <row r="131" spans="1:17" ht="15" customHeight="1">
-      <c r="A131" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B131" s="6"/>
+      <c r="A131" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
         <v>64</v>
       </c>
@@ -8096,19 +8093,19 @@
         <v>66</v>
       </c>
       <c r="H131" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K131" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="L131" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
@@ -8117,10 +8114,10 @@
       <c r="Q131" s="2"/>
     </row>
     <row r="132" spans="1:17" ht="15" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B132" s="6"/>
+      <c r="A132" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -8140,16 +8137,16 @@
         <v>377</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K132" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L132" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>656</v>
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -8158,10 +8155,10 @@
       <c r="Q132" s="2"/>
     </row>
     <row r="133" spans="1:17" ht="15" customHeight="1">
-      <c r="A133" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B133" s="6"/>
+      <c r="A133" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
         <v>35</v>
       </c>
@@ -8178,19 +8175,19 @@
         <v>66</v>
       </c>
       <c r="H133" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K133" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="L133" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -8199,10 +8196,10 @@
       <c r="Q133" s="2"/>
     </row>
     <row r="134" spans="1:17" ht="15" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B134" s="6"/>
+      <c r="A134" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
         <v>35</v>
       </c>
@@ -8219,19 +8216,19 @@
         <v>66</v>
       </c>
       <c r="H134" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K134" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="L134" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -8240,10 +8237,10 @@
       <c r="Q134" s="2"/>
     </row>
     <row r="135" spans="1:17" ht="15" customHeight="1">
-      <c r="A135" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B135" s="6"/>
+      <c r="A135" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
         <v>35</v>
       </c>
@@ -8260,19 +8257,19 @@
         <v>66</v>
       </c>
       <c r="H135" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K135" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="L135" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -8281,10 +8278,10 @@
       <c r="Q135" s="2"/>
     </row>
     <row r="136" spans="1:17" ht="15" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B136" s="6"/>
+      <c r="A136" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
         <v>22</v>
       </c>
@@ -8301,19 +8298,19 @@
         <v>66</v>
       </c>
       <c r="H136" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I136" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K136" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L136" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>676</v>
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -8322,10 +8319,10 @@
       <c r="Q136" s="2"/>
     </row>
     <row r="137" spans="1:17" ht="15" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B137" s="6"/>
+      <c r="A137" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
         <v>130</v>
       </c>
@@ -8342,19 +8339,19 @@
         <v>66</v>
       </c>
       <c r="H137" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K137" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="L137" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>681</v>
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
@@ -8363,10 +8360,10 @@
       <c r="Q137" s="2"/>
     </row>
     <row r="138" spans="1:17" ht="15" customHeight="1">
-      <c r="A138" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B138" s="6"/>
+      <c r="A138" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
         <v>64</v>
       </c>
@@ -8383,19 +8380,19 @@
         <v>66</v>
       </c>
       <c r="H138" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K138" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L138" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
@@ -8404,10 +8401,10 @@
       <c r="Q138" s="2"/>
     </row>
     <row r="139" spans="1:17" ht="15" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="B139" s="6"/>
+      <c r="A139" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
         <v>22</v>
       </c>
@@ -8424,19 +8421,19 @@
         <v>66</v>
       </c>
       <c r="H139" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K139" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="L139" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>691</v>
       </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
@@ -8445,10 +8442,10 @@
       <c r="Q139" s="2"/>
     </row>
     <row r="140" spans="1:17" ht="15" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="B140" s="6"/>
+      <c r="A140" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
         <v>35</v>
       </c>
@@ -8465,19 +8462,19 @@
         <v>66</v>
       </c>
       <c r="H140" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K140" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="L140" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
@@ -8486,10 +8483,10 @@
       <c r="Q140" s="2"/>
     </row>
     <row r="141" spans="1:17" ht="15" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="B141" s="6"/>
+      <c r="A141" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
         <v>22</v>
       </c>
@@ -8506,19 +8503,19 @@
         <v>66</v>
       </c>
       <c r="H141" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K141" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="L141" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
@@ -8527,10 +8524,10 @@
       <c r="Q141" s="2"/>
     </row>
     <row r="142" spans="1:17" ht="15" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="B142" s="6"/>
+      <c r="A142" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B142" s="8"/>
       <c r="C142" s="3" t="s">
         <v>35</v>
       </c>
@@ -8544,22 +8541,22 @@
         <v>65</v>
       </c>
       <c r="G142" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H142" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K142" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="L142" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
@@ -8568,10 +8565,10 @@
       <c r="Q142" s="2"/>
     </row>
     <row r="143" spans="1:17" ht="15" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B143" s="6"/>
+      <c r="A143" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B143" s="8"/>
       <c r="C143" s="3" t="s">
         <v>35</v>
       </c>
@@ -8585,22 +8582,22 @@
         <v>65</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H143" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K143" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="L143" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
@@ -8609,10 +8606,10 @@
       <c r="Q143" s="2"/>
     </row>
     <row r="144" spans="1:17" ht="15" customHeight="1">
-      <c r="A144" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="B144" s="6"/>
+      <c r="A144" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
         <v>22</v>
       </c>
@@ -8626,22 +8623,22 @@
         <v>65</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H144" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K144" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L144" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
@@ -8650,10 +8647,10 @@
       <c r="Q144" s="2"/>
     </row>
     <row r="145" spans="1:17" ht="15" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B145" s="6"/>
+      <c r="A145" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
         <v>22</v>
       </c>
@@ -8667,22 +8664,22 @@
         <v>65</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H145" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K145" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L145" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
@@ -8691,10 +8688,10 @@
       <c r="Q145" s="2"/>
     </row>
     <row r="146" spans="1:17" ht="15" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B146" s="6"/>
+      <c r="A146" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
         <v>58</v>
       </c>
@@ -8708,22 +8705,22 @@
         <v>73</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H146" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K146" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="L146" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -8732,10 +8729,10 @@
       <c r="Q146" s="2"/>
     </row>
     <row r="147" spans="1:17" ht="15" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="B147" s="6"/>
+      <c r="A147" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
         <v>58</v>
       </c>
@@ -8749,19 +8746,19 @@
         <v>73</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H147" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>123</v>
@@ -8773,10 +8770,10 @@
       <c r="Q147" s="2"/>
     </row>
     <row r="148" spans="1:17" ht="15" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="B148" s="6"/>
+      <c r="A148" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
         <v>35</v>
       </c>
@@ -8790,22 +8787,22 @@
         <v>80</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H148" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I148" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K148" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="L148" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -8814,10 +8811,10 @@
       <c r="Q148" s="2"/>
     </row>
     <row r="149" spans="1:17" ht="15" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="B149" s="6"/>
+      <c r="A149" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
         <v>35</v>
       </c>
@@ -8831,22 +8828,22 @@
         <v>97</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H149" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K149" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="L149" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -8855,10 +8852,10 @@
       <c r="Q149" s="2"/>
     </row>
     <row r="150" spans="1:17" ht="15" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="B150" s="6"/>
+      <c r="A150" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
         <v>22</v>
       </c>
@@ -8872,13 +8869,13 @@
         <v>65</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>49</v>
@@ -8887,7 +8884,7 @@
         <v>73</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -8896,10 +8893,10 @@
       <c r="Q150" s="2"/>
     </row>
     <row r="151" spans="1:17" ht="15" customHeight="1">
-      <c r="A151" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B151" s="6"/>
+      <c r="A151" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
         <v>64</v>
       </c>
@@ -8913,13 +8910,13 @@
         <v>65</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>49</v>
@@ -8928,7 +8925,7 @@
         <v>73</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -8937,10 +8934,10 @@
       <c r="Q151" s="2"/>
     </row>
     <row r="152" spans="1:17" ht="15" customHeight="1">
-      <c r="A152" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B152" s="6"/>
+      <c r="A152" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
         <v>64</v>
       </c>
@@ -8954,22 +8951,22 @@
         <v>65</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
@@ -8978,10 +8975,10 @@
       <c r="Q152" s="2"/>
     </row>
     <row r="153" spans="1:17" ht="15" customHeight="1">
-      <c r="A153" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="B153" s="6"/>
+      <c r="A153" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
         <v>35</v>
       </c>
@@ -8995,22 +8992,22 @@
         <v>80</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H153" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K153" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="L153" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
@@ -9019,10 +9016,10 @@
       <c r="Q153" s="2"/>
     </row>
     <row r="154" spans="1:17" ht="15" customHeight="1">
-      <c r="A154" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B154" s="6"/>
+      <c r="A154" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
         <v>35</v>
       </c>
@@ -9036,20 +9033,20 @@
         <v>38</v>
       </c>
       <c r="G154" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H154" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="I154" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
@@ -9059,51 +9056,105 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
@@ -9114,105 +9165,51 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/TransferenciasRecibidas.xlsx
+++ b/TransferenciasRecibidas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1531D6-7A97-4A82-A5BD-78AAFBD104C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78335DB2-B227-4CEA-BC9D-E9A42849C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="24220" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transferencias Recibidas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="759">
   <si>
     <t>Grupo</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>236.843</t>
   </si>
   <si>
-    <t>061018049987</t>
-  </si>
-  <si>
     <t>12371263-3</t>
   </si>
   <si>
@@ -1103,9 +1100,6 @@
     <t>42970054094</t>
   </si>
   <si>
-    <t>324.357</t>
-  </si>
-  <si>
     <t>061034022280</t>
   </si>
   <si>
@@ -2292,6 +2286,15 @@
   </si>
   <si>
     <t>15.000</t>
+  </si>
+  <si>
+    <t>4.566</t>
+  </si>
+  <si>
+    <t>06567456466634</t>
+  </si>
+  <si>
+    <t>576756733335</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2438,6 +2441,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2806,8 +2812,8 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J59" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="I83" workbookViewId="0">
+      <selection activeCell="K90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -5572,10 +5578,10 @@
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B70" s="8"/>
+      <c r="A70" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B70" s="11"/>
       <c r="C70" s="3" t="s">
         <v>22</v>
       </c>
@@ -5592,19 +5598,19 @@
         <v>66</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -5614,7 +5620,7 @@
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="3" t="s">
@@ -5633,16 +5639,16 @@
         <v>66</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>118</v>
@@ -5655,7 +5661,7 @@
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="3" t="s">
@@ -5674,19 +5680,19 @@
         <v>66</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -5696,7 +5702,7 @@
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="3" t="s">
@@ -5715,19 +5721,19 @@
         <v>66</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -5737,7 +5743,7 @@
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="3" t="s">
@@ -5756,16 +5762,16 @@
         <v>66</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>123</v>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
@@ -5797,19 +5803,19 @@
         <v>66</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -5819,7 +5825,7 @@
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
@@ -5838,19 +5844,19 @@
         <v>66</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -5860,7 +5866,7 @@
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="3" t="s">
@@ -5879,19 +5885,19 @@
         <v>66</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -5901,7 +5907,7 @@
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="3" t="s">
@@ -5942,7 +5948,7 @@
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="3" t="s">
@@ -5973,7 +5979,7 @@
         <v>311</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -5983,7 +5989,7 @@
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="3" t="s">
@@ -6002,19 +6008,19 @@
         <v>66</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="3" t="s">
@@ -6043,16 +6049,16 @@
         <v>66</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>261</v>
@@ -6065,7 +6071,7 @@
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
@@ -6084,19 +6090,19 @@
         <v>66</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="3" t="s">
@@ -6125,19 +6131,19 @@
         <v>66</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -6147,7 +6153,7 @@
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
@@ -6169,13 +6175,13 @@
         <v>81</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>261</v>
@@ -6188,7 +6194,7 @@
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
@@ -6207,19 +6213,19 @@
         <v>66</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -6229,7 +6235,7 @@
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
@@ -6248,19 +6254,19 @@
         <v>66</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
@@ -6289,19 +6295,19 @@
         <v>66</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -6311,7 +6317,7 @@
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
@@ -6330,19 +6336,19 @@
         <v>66</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -6352,7 +6358,7 @@
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
@@ -6371,19 +6377,19 @@
         <v>66</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -6392,10 +6398,10 @@
       <c r="Q89" s="2"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1">
-      <c r="A90" s="8">
-        <v>763190794566</v>
-      </c>
-      <c r="B90" s="8"/>
+      <c r="A90" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B90" s="11"/>
       <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
@@ -6412,19 +6418,19 @@
         <v>66</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -6434,7 +6440,7 @@
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="3" t="s">
@@ -6453,19 +6459,19 @@
         <v>66</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -6475,7 +6481,7 @@
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
@@ -6494,16 +6500,16 @@
         <v>66</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>261</v>
@@ -6516,7 +6522,7 @@
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
@@ -6535,19 +6541,19 @@
         <v>66</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -6557,7 +6563,7 @@
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
@@ -6576,19 +6582,19 @@
         <v>66</v>
       </c>
       <c r="H94" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -6598,7 +6604,7 @@
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
@@ -6611,25 +6617,25 @@
         <v>37</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="J95" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="3" t="s">
@@ -6658,19 +6664,19 @@
         <v>66</v>
       </c>
       <c r="H96" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -6680,7 +6686,7 @@
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="3" t="s">
@@ -6699,19 +6705,19 @@
         <v>66</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="L97" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -6721,7 +6727,7 @@
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="3" t="s">
@@ -6740,19 +6746,19 @@
         <v>66</v>
       </c>
       <c r="H98" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="L98" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -6762,7 +6768,7 @@
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
@@ -6781,19 +6787,19 @@
         <v>66</v>
       </c>
       <c r="H99" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="L99" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -6803,7 +6809,7 @@
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="3" t="s">
@@ -6822,19 +6828,19 @@
         <v>66</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -6844,7 +6850,7 @@
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="3" t="s">
@@ -6863,19 +6869,19 @@
         <v>66</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
@@ -6885,7 +6891,7 @@
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="3" t="s">
@@ -6904,19 +6910,19 @@
         <v>66</v>
       </c>
       <c r="H102" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
@@ -6926,7 +6932,7 @@
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="3" t="s">
@@ -6945,19 +6951,19 @@
         <v>66</v>
       </c>
       <c r="H103" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="L103" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
@@ -6967,7 +6973,7 @@
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="3" t="s">
@@ -6986,19 +6992,19 @@
         <v>66</v>
       </c>
       <c r="H104" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="L104" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
@@ -7008,7 +7014,7 @@
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
@@ -7027,19 +7033,19 @@
         <v>66</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="L105" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
@@ -7049,7 +7055,7 @@
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="3" t="s">
@@ -7068,19 +7074,19 @@
         <v>66</v>
       </c>
       <c r="H106" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="L106" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
@@ -7090,7 +7096,7 @@
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="3" t="s">
@@ -7109,19 +7115,19 @@
         <v>66</v>
       </c>
       <c r="H107" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="L107" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
@@ -7131,7 +7137,7 @@
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="3" t="s">
@@ -7150,19 +7156,19 @@
         <v>66</v>
       </c>
       <c r="H108" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="L108" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
@@ -7172,7 +7178,7 @@
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="3" t="s">
@@ -7191,19 +7197,19 @@
         <v>66</v>
       </c>
       <c r="H109" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="L109" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -7213,7 +7219,7 @@
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
@@ -7232,19 +7238,19 @@
         <v>66</v>
       </c>
       <c r="H110" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -7254,7 +7260,7 @@
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
@@ -7273,19 +7279,19 @@
         <v>66</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="L111" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -7295,7 +7301,7 @@
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="3" t="s">
@@ -7314,19 +7320,19 @@
         <v>66</v>
       </c>
       <c r="H112" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="L112" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -7336,7 +7342,7 @@
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="3" t="s">
@@ -7355,19 +7361,19 @@
         <v>66</v>
       </c>
       <c r="H113" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="L113" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -7377,7 +7383,7 @@
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="3" t="s">
@@ -7396,19 +7402,19 @@
         <v>66</v>
       </c>
       <c r="H114" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="L114" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -7418,7 +7424,7 @@
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="3" t="s">
@@ -7437,19 +7443,19 @@
         <v>66</v>
       </c>
       <c r="H115" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="L115" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
@@ -7459,7 +7465,7 @@
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="3" t="s">
@@ -7478,19 +7484,19 @@
         <v>66</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -7500,7 +7506,7 @@
     </row>
     <row r="117" spans="1:17" ht="15" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
@@ -7519,19 +7525,19 @@
         <v>66</v>
       </c>
       <c r="H117" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="L117" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -7541,7 +7547,7 @@
     </row>
     <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="3" t="s">
@@ -7560,16 +7566,16 @@
         <v>66</v>
       </c>
       <c r="H118" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="J118" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>261</v>
@@ -7582,7 +7588,7 @@
     </row>
     <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="3" t="s">
@@ -7601,19 +7607,19 @@
         <v>66</v>
       </c>
       <c r="H119" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="L119" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -7623,7 +7629,7 @@
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
@@ -7642,19 +7648,19 @@
         <v>66</v>
       </c>
       <c r="H120" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="L120" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -7664,7 +7670,7 @@
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
@@ -7683,19 +7689,19 @@
         <v>66</v>
       </c>
       <c r="H121" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="L121" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
@@ -7705,7 +7711,7 @@
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
@@ -7724,19 +7730,19 @@
         <v>66</v>
       </c>
       <c r="H122" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="L122" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
@@ -7746,7 +7752,7 @@
     </row>
     <row r="123" spans="1:17" ht="15" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
@@ -7765,19 +7771,19 @@
         <v>66</v>
       </c>
       <c r="H123" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -7787,7 +7793,7 @@
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
@@ -7806,19 +7812,19 @@
         <v>66</v>
       </c>
       <c r="H124" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="L124" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
@@ -7828,7 +7834,7 @@
     </row>
     <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
@@ -7847,19 +7853,19 @@
         <v>66</v>
       </c>
       <c r="H125" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="L125" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
@@ -7888,19 +7894,19 @@
         <v>66</v>
       </c>
       <c r="H126" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="L126" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
@@ -7910,7 +7916,7 @@
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
@@ -7929,19 +7935,19 @@
         <v>66</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
@@ -7951,7 +7957,7 @@
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
@@ -7970,19 +7976,19 @@
         <v>66</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -7992,7 +7998,7 @@
     </row>
     <row r="129" spans="1:17" ht="15" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
@@ -8011,19 +8017,19 @@
         <v>66</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
@@ -8033,7 +8039,7 @@
     </row>
     <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
@@ -8055,13 +8061,13 @@
         <v>207</v>
       </c>
       <c r="I130" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="K130" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>261</v>
@@ -8074,7 +8080,7 @@
     </row>
     <row r="131" spans="1:17" ht="15" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
@@ -8093,19 +8099,19 @@
         <v>66</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
@@ -8115,7 +8121,7 @@
     </row>
     <row r="132" spans="1:17" ht="15" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="3" t="s">
@@ -8134,19 +8140,19 @@
         <v>66</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -8156,7 +8162,7 @@
     </row>
     <row r="133" spans="1:17" ht="15" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
@@ -8175,19 +8181,19 @@
         <v>66</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -8197,7 +8203,7 @@
     </row>
     <row r="134" spans="1:17" ht="15" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
@@ -8216,19 +8222,19 @@
         <v>66</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -8238,7 +8244,7 @@
     </row>
     <row r="135" spans="1:17" ht="15" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
@@ -8257,19 +8263,19 @@
         <v>66</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -8279,7 +8285,7 @@
     </row>
     <row r="136" spans="1:17" ht="15" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
@@ -8298,19 +8304,19 @@
         <v>66</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -8320,7 +8326,7 @@
     </row>
     <row r="137" spans="1:17" ht="15" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
@@ -8339,19 +8345,19 @@
         <v>66</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
@@ -8361,7 +8367,7 @@
     </row>
     <row r="138" spans="1:17" ht="15" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
@@ -8380,19 +8386,19 @@
         <v>66</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
@@ -8402,7 +8408,7 @@
     </row>
     <row r="139" spans="1:17" ht="15" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
@@ -8421,19 +8427,19 @@
         <v>66</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
@@ -8443,7 +8449,7 @@
     </row>
     <row r="140" spans="1:17" ht="15" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
@@ -8462,19 +8468,19 @@
         <v>66</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
@@ -8484,7 +8490,7 @@
     </row>
     <row r="141" spans="1:17" ht="15" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
@@ -8503,19 +8509,19 @@
         <v>66</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>224</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
@@ -8525,7 +8531,7 @@
     </row>
     <row r="142" spans="1:17" ht="15" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="3" t="s">
@@ -8541,22 +8547,22 @@
         <v>65</v>
       </c>
       <c r="G142" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
@@ -8566,7 +8572,7 @@
     </row>
     <row r="143" spans="1:17" ht="15" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="3" t="s">
@@ -8582,22 +8588,22 @@
         <v>65</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
@@ -8607,7 +8613,7 @@
     </row>
     <row r="144" spans="1:17" ht="15" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="3" t="s">
@@ -8623,22 +8629,22 @@
         <v>65</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="145" spans="1:17" ht="15" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="3" t="s">
@@ -8664,22 +8670,22 @@
         <v>65</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
@@ -8689,7 +8695,7 @@
     </row>
     <row r="146" spans="1:17" ht="15" customHeight="1">
       <c r="A146" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
@@ -8705,22 +8711,22 @@
         <v>73</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -8730,7 +8736,7 @@
     </row>
     <row r="147" spans="1:17" ht="15" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="3" t="s">
@@ -8746,19 +8752,19 @@
         <v>73</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>123</v>
@@ -8771,7 +8777,7 @@
     </row>
     <row r="148" spans="1:17" ht="15" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
@@ -8787,22 +8793,22 @@
         <v>80</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -8812,7 +8818,7 @@
     </row>
     <row r="149" spans="1:17" ht="15" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
@@ -8828,22 +8834,22 @@
         <v>97</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -8853,7 +8859,7 @@
     </row>
     <row r="150" spans="1:17" ht="15" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
@@ -8869,13 +8875,13 @@
         <v>65</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>49</v>
@@ -8884,7 +8890,7 @@
         <v>73</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -8894,7 +8900,7 @@
     </row>
     <row r="151" spans="1:17" ht="15" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
@@ -8910,13 +8916,13 @@
         <v>65</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>49</v>
@@ -8925,7 +8931,7 @@
         <v>73</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -8935,7 +8941,7 @@
     </row>
     <row r="152" spans="1:17" ht="15" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
@@ -8951,22 +8957,22 @@
         <v>65</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
@@ -8976,7 +8982,7 @@
     </row>
     <row r="153" spans="1:17" ht="15" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="3" t="s">
@@ -8992,22 +8998,22 @@
         <v>80</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
@@ -9017,7 +9023,7 @@
     </row>
     <row r="154" spans="1:17" ht="15" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
@@ -9033,20 +9039,20 @@
         <v>38</v>
       </c>
       <c r="G154" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>755</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
